--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2002774.625536398</v>
+        <v>2031047.967281907</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>558908.7136639258</v>
+        <v>196313.9942241331</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6194455.330229518</v>
+        <v>6194455.33022951</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>21.06378739764988</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>29.81956111589733</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F4" t="n">
-        <v>17.13267830032996</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -835,10 +835,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>97.30070467572037</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>279.5563487556005</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>140.1997601007686</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>85.72834075468866</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>365.8465472076015</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="V10" t="n">
-        <v>234.3107022885809</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>362.1991496054761</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>117.9868318711638</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>45.17347154609979</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.164651077378</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.1386670296631</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>209.6159497203185</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>42.00709889838625</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>97.9675703571391</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,10 +1622,10 @@
         <v>413.4605803604186</v>
       </c>
       <c r="H14" t="n">
-        <v>144.5443278153725</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I14" t="n">
-        <v>139.456125863199</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>34.1517135711908</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>102.7162274808072</v>
       </c>
       <c r="I15" t="n">
-        <v>55.46118710565631</v>
+        <v>55.4611871056563</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.961634155578</v>
+        <v>38.96163415557799</v>
       </c>
       <c r="S15" t="n">
         <v>153.3753223480049</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.00709889838625</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>209.6159497203185</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>38.48010346999884</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2739569047956</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>94.43711799341696</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1859,10 @@
         <v>413.4605803604186</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>34.1517135711908</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>215.03180661936</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>131.1354199325217</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>90.07570135398106</v>
+        <v>65.17885213866637</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H20" t="n">
-        <v>320.608810155027</v>
+        <v>320.6088101550271</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V20" t="n">
-        <v>69.21440913725348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>152.6094134462654</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>102.7162274808072</v>
       </c>
       <c r="I21" t="n">
-        <v>55.4611871056563</v>
+        <v>55.46118710565631</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.96163415557799</v>
+        <v>38.961634155578</v>
       </c>
       <c r="S21" t="n">
         <v>153.3753223480049</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.68839831894099</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>34.93777064425932</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>209.6159497203185</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>29.72127932873485</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.608810155027</v>
+        <v>320.6088101550271</v>
       </c>
       <c r="I23" t="n">
-        <v>139.4561258631989</v>
+        <v>139.456125863199</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>167.0419134231436</v>
+        <v>87.42115616140534</v>
       </c>
       <c r="T23" t="n">
-        <v>199.9438126189857</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1982803354592</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2415,7 @@
         <v>102.7162274808072</v>
       </c>
       <c r="I24" t="n">
-        <v>55.4611871056563</v>
+        <v>55.46118710565631</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.96163415557799</v>
+        <v>38.961634155578</v>
       </c>
       <c r="S24" t="n">
         <v>153.3753223480049</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>162.3813644958717</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>7.069328254126654</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.93777064425932</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>318.0746851442272</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.4605803604186</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.6088101550271</v>
       </c>
       <c r="I26" t="n">
-        <v>60.74374570368111</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>34.1517135711908</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>102.7162274808072</v>
       </c>
       <c r="I27" t="n">
-        <v>55.4611871056563</v>
+        <v>55.46118710565631</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>38.96163415557799</v>
+        <v>38.961634155578</v>
       </c>
       <c r="S27" t="n">
         <v>153.3753223480049</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>94.62667739204699</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>220.844198786281</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.4605803604186</v>
       </c>
       <c r="H29" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>37.26038225057376</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>34.1517135711908</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>251.1982803354592</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>148.9960887714639</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>102.7162274808072</v>
       </c>
       <c r="I30" t="n">
-        <v>55.4611871056563</v>
+        <v>55.46118710565631</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>38.96163415557799</v>
+        <v>38.961634155578</v>
       </c>
       <c r="S30" t="n">
         <v>153.3753223480049</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>42.00709889838625</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>129.1029931021768</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>131.2606585659371</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>34.1517135711908</v>
+        <v>34.15171357119081</v>
       </c>
       <c r="S32" t="n">
-        <v>4.711645106754676</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>102.7162274808072</v>
       </c>
       <c r="I33" t="n">
-        <v>55.4611871056563</v>
+        <v>55.46118710565631</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>38.96163415557799</v>
+        <v>38.961634155578</v>
       </c>
       <c r="S33" t="n">
         <v>153.3753223480049</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>54.81573418583663</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.93777064425932</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.96831782410013</v>
+        <v>16.96831782410014</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>140.1386670296631</v>
       </c>
       <c r="S34" t="n">
-        <v>209.6159497203185</v>
+        <v>141.8173540698644</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3272,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.608810155027</v>
+        <v>165.146228844839</v>
       </c>
       <c r="I35" t="n">
-        <v>123.3925207393805</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>102.7162274808072</v>
       </c>
       <c r="I36" t="n">
-        <v>55.4611871056563</v>
+        <v>55.46118710565631</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.96163415557799</v>
+        <v>38.961634155578</v>
       </c>
       <c r="S36" t="n">
         <v>153.3753223480049</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>140.1386670296631</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>209.6159497203185</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2739569047956</v>
+        <v>212.3381226234775</v>
       </c>
       <c r="V37" t="n">
-        <v>213.7106981775544</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>273.4106035282467</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>34.15171357119077</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>203.7525378619343</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>102.7162274808072</v>
       </c>
       <c r="I39" t="n">
-        <v>55.4611871056563</v>
+        <v>55.46118710565629</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.96163415557799</v>
+        <v>38.96163415557798</v>
       </c>
       <c r="S39" t="n">
         <v>153.3753223480049</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>126.7671342641039</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>209.6159497203184</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>55.69034634121805</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>319.6681505951968</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>62.07096082214664</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>7.501001614769038</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>154.8803628811029</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>84.70590759974625</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.9377706442593</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>62.07096082214664</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4132,31 +4132,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>11.62569755522259</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H46" t="n">
-        <v>46.79982208664522</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.9377706442593</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>140.1386670296631</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>209.6159497203184</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.06035969704</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.921027721229</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4404,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,10 +4434,10 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>579.9823256406182</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1503.604727733592</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1134.642210793181</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1134.642210793181</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.14692331494</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1503.604727733592</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4647,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598708</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.95295430729</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1122.95295430729</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287635</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204936</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323009</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323009</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323009</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1585.425860308167</v>
+        <v>2464.670076685049</v>
       </c>
       <c r="C11" t="n">
-        <v>1216.463343367755</v>
+        <v>2098.812349810831</v>
       </c>
       <c r="D11" t="n">
-        <v>858.1976447610048</v>
+        <v>1740.54665120408</v>
       </c>
       <c r="E11" t="n">
-        <v>472.4093921627605</v>
+        <v>1354.758398605836</v>
       </c>
       <c r="F11" t="n">
-        <v>61.42348737315295</v>
+        <v>943.7724938162283</v>
       </c>
       <c r="G11" t="n">
-        <v>61.42348737315295</v>
+        <v>526.1355439572196</v>
       </c>
       <c r="H11" t="n">
-        <v>61.42348737315295</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="I11" t="n">
         <v>61.42348737315295</v>
       </c>
       <c r="J11" t="n">
-        <v>204.3809688641029</v>
+        <v>204.3809688641027</v>
       </c>
       <c r="K11" t="n">
-        <v>539.3819799625986</v>
+        <v>539.3819799625981</v>
       </c>
       <c r="L11" t="n">
         <v>1007.256984588248</v>
       </c>
       <c r="M11" t="n">
-        <v>1544.464622569331</v>
+        <v>1544.46462256933</v>
       </c>
       <c r="N11" t="n">
         <v>2075.732844220428</v>
@@ -5066,25 +5066,25 @@
         <v>3071.174368657647</v>
       </c>
       <c r="S11" t="n">
-        <v>2951.995750605967</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="T11" t="n">
-        <v>2951.995750605967</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="U11" t="n">
-        <v>2698.260113903483</v>
+        <v>2817.438731955163</v>
       </c>
       <c r="V11" t="n">
-        <v>2698.260113903483</v>
+        <v>2817.438731955163</v>
       </c>
       <c r="W11" t="n">
-        <v>2345.491458633368</v>
+        <v>2464.670076685049</v>
       </c>
       <c r="X11" t="n">
-        <v>1972.025700372289</v>
+        <v>2464.670076685049</v>
       </c>
       <c r="Y11" t="n">
-        <v>1972.025700372289</v>
+        <v>2464.670076685049</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>152.8746043093673</v>
       </c>
       <c r="K12" t="n">
-        <v>173.9793877453105</v>
+        <v>435.7999723877633</v>
       </c>
       <c r="L12" t="n">
-        <v>615.8118565725578</v>
+        <v>828.9151136721094</v>
       </c>
       <c r="M12" t="n">
-        <v>1183.388729443044</v>
+        <v>1396.491986542596</v>
       </c>
       <c r="N12" t="n">
-        <v>1781.694686648175</v>
+        <v>1994.797943747726</v>
       </c>
       <c r="O12" t="n">
-        <v>2262.61207068328</v>
+        <v>2243.551357831689</v>
       </c>
       <c r="P12" t="n">
-        <v>2631.587602119568</v>
+        <v>2612.526889267976</v>
       </c>
       <c r="Q12" t="n">
         <v>2681.921447781306</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>275.90643951808</v>
+        <v>813.4442495151275</v>
       </c>
       <c r="C13" t="n">
-        <v>275.90643951808</v>
+        <v>813.4442495151275</v>
       </c>
       <c r="D13" t="n">
-        <v>275.90643951808</v>
+        <v>813.4442495151275</v>
       </c>
       <c r="E13" t="n">
-        <v>275.90643951808</v>
+        <v>665.5311559327344</v>
       </c>
       <c r="F13" t="n">
-        <v>230.2766702795954</v>
+        <v>518.641208434824</v>
       </c>
       <c r="G13" t="n">
-        <v>61.42348737315295</v>
+        <v>349.7880255283816</v>
       </c>
       <c r="H13" t="n">
-        <v>61.42348737315295</v>
+        <v>193.3432145373686</v>
       </c>
       <c r="I13" t="n">
         <v>61.42348737315295</v>
@@ -5221,28 +5221,28 @@
         <v>855.8756625438004</v>
       </c>
       <c r="R13" t="n">
-        <v>714.3214534229286</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="S13" t="n">
-        <v>502.5881708771524</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="T13" t="n">
-        <v>275.90643951808</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="U13" t="n">
-        <v>275.90643951808</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="V13" t="n">
-        <v>275.90643951808</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="W13" t="n">
-        <v>275.90643951808</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="X13" t="n">
-        <v>275.90643951808</v>
+        <v>813.4442495151275</v>
       </c>
       <c r="Y13" t="n">
-        <v>275.90643951808</v>
+        <v>813.4442495151275</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1920.969438356634</v>
+        <v>1839.503792978968</v>
       </c>
       <c r="C14" t="n">
-        <v>1920.969438356634</v>
+        <v>1839.503792978968</v>
       </c>
       <c r="D14" t="n">
-        <v>1562.703739749884</v>
+        <v>1740.54665120408</v>
       </c>
       <c r="E14" t="n">
-        <v>1176.915487151639</v>
+        <v>1354.758398605836</v>
       </c>
       <c r="F14" t="n">
-        <v>765.9295823620319</v>
+        <v>943.7724938162283</v>
       </c>
       <c r="G14" t="n">
-        <v>348.2926325030231</v>
+        <v>526.1355439572196</v>
       </c>
       <c r="H14" t="n">
         <v>202.2882609723438</v>
@@ -5279,13 +5279,13 @@
         <v>204.3809688641029</v>
       </c>
       <c r="K14" t="n">
-        <v>539.3819799625987</v>
+        <v>539.3819799625986</v>
       </c>
       <c r="L14" t="n">
         <v>1007.256984588248</v>
       </c>
       <c r="M14" t="n">
-        <v>1544.46462256933</v>
+        <v>1544.464622569331</v>
       </c>
       <c r="N14" t="n">
         <v>2075.732844220428</v>
@@ -5300,28 +5300,28 @@
         <v>3071.174368657647</v>
       </c>
       <c r="R14" t="n">
-        <v>3071.174368657647</v>
+        <v>3036.677688282707</v>
       </c>
       <c r="S14" t="n">
-        <v>3071.174368657647</v>
+        <v>3036.677688282707</v>
       </c>
       <c r="T14" t="n">
-        <v>3071.174368657647</v>
+        <v>2819.473843212646</v>
       </c>
       <c r="U14" t="n">
-        <v>3071.174368657647</v>
+        <v>2565.738206510162</v>
       </c>
       <c r="V14" t="n">
-        <v>3071.174368657647</v>
+        <v>2565.738206510162</v>
       </c>
       <c r="W14" t="n">
-        <v>3071.174368657647</v>
+        <v>2212.969551240048</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.708610396568</v>
+        <v>1839.503792978968</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.569278420756</v>
+        <v>1839.503792978968</v>
       </c>
     </row>
     <row r="15">
@@ -5361,7 +5361,7 @@
         <v>435.7999723877633</v>
       </c>
       <c r="L15" t="n">
-        <v>877.6324412150105</v>
+        <v>877.6324412150107</v>
       </c>
       <c r="M15" t="n">
         <v>1445.209314085497</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.42348737315295</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="C16" t="n">
-        <v>61.42348737315295</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="D16" t="n">
-        <v>61.42348737315295</v>
+        <v>813.4442495151275</v>
       </c>
       <c r="E16" t="n">
-        <v>61.42348737315295</v>
+        <v>665.5311559327344</v>
       </c>
       <c r="F16" t="n">
-        <v>61.42348737315295</v>
+        <v>518.641208434824</v>
       </c>
       <c r="G16" t="n">
-        <v>61.42348737315295</v>
+        <v>349.7880255283816</v>
       </c>
       <c r="H16" t="n">
-        <v>61.42348737315295</v>
+        <v>193.3432145373686</v>
       </c>
       <c r="I16" t="n">
         <v>61.42348737315295</v>
@@ -5440,46 +5440,46 @@
         <v>134.420969355444</v>
       </c>
       <c r="L16" t="n">
-        <v>283.3590487423174</v>
+        <v>283.3590487423176</v>
       </c>
       <c r="M16" t="n">
-        <v>450.7824938906277</v>
+        <v>450.7824938906278</v>
       </c>
       <c r="N16" t="n">
-        <v>619.659600144964</v>
+        <v>619.6596001449641</v>
       </c>
       <c r="O16" t="n">
-        <v>759.6286458080635</v>
+        <v>759.6286458080638</v>
       </c>
       <c r="P16" t="n">
-        <v>855.8756625438002</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="Q16" t="n">
-        <v>855.8756625438002</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="R16" t="n">
-        <v>855.8756625438002</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="S16" t="n">
-        <v>644.142379998024</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="T16" t="n">
-        <v>605.2735886141868</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="U16" t="n">
-        <v>316.1079755790398</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="V16" t="n">
-        <v>61.42348737315295</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="W16" t="n">
-        <v>61.42348737315295</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="X16" t="n">
-        <v>61.42348737315295</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.42348737315295</v>
+        <v>855.8756625438004</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>985.4373702979481</v>
+        <v>2467.774866751242</v>
       </c>
       <c r="C17" t="n">
-        <v>985.4373702979481</v>
+        <v>2098.812349810831</v>
       </c>
       <c r="D17" t="n">
-        <v>890.0463420217693</v>
+        <v>1740.54665120408</v>
       </c>
       <c r="E17" t="n">
-        <v>890.0463420217693</v>
+        <v>1354.758398605836</v>
       </c>
       <c r="F17" t="n">
-        <v>479.0604372321617</v>
+        <v>943.7724938162283</v>
       </c>
       <c r="G17" t="n">
-        <v>61.42348737315295</v>
+        <v>526.1355439572196</v>
       </c>
       <c r="H17" t="n">
-        <v>61.42348737315295</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="I17" t="n">
         <v>61.42348737315295</v>
       </c>
       <c r="J17" t="n">
-        <v>204.380968864103</v>
+        <v>204.3809688641029</v>
       </c>
       <c r="K17" t="n">
-        <v>539.3819799625987</v>
+        <v>539.3819799625986</v>
       </c>
       <c r="L17" t="n">
         <v>1007.256984588248</v>
@@ -5537,28 +5537,28 @@
         <v>3071.174368657647</v>
       </c>
       <c r="R17" t="n">
-        <v>3036.677688282707</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="S17" t="n">
-        <v>3036.677688282707</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="T17" t="n">
-        <v>2819.473843212646</v>
+        <v>2853.970523587587</v>
       </c>
       <c r="U17" t="n">
-        <v>2819.473843212646</v>
+        <v>2600.234886885103</v>
       </c>
       <c r="V17" t="n">
-        <v>2488.410955869076</v>
+        <v>2600.234886885103</v>
       </c>
       <c r="W17" t="n">
-        <v>2135.642300598961</v>
+        <v>2600.234886885103</v>
       </c>
       <c r="X17" t="n">
-        <v>1762.176542337882</v>
+        <v>2467.774866751242</v>
       </c>
       <c r="Y17" t="n">
-        <v>1372.03721036207</v>
+        <v>2467.774866751242</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>152.8746043093673</v>
       </c>
       <c r="K18" t="n">
-        <v>435.7999723877633</v>
+        <v>278.2321643672047</v>
       </c>
       <c r="L18" t="n">
-        <v>877.6324412150107</v>
+        <v>720.064633194452</v>
       </c>
       <c r="M18" t="n">
-        <v>1445.209314085497</v>
+        <v>1287.641506064938</v>
       </c>
       <c r="N18" t="n">
-        <v>2043.515271290628</v>
+        <v>1885.947463270069</v>
       </c>
       <c r="O18" t="n">
-        <v>2524.432655325733</v>
+        <v>2366.864847305174</v>
       </c>
       <c r="P18" t="n">
-        <v>2578.130045808483</v>
+        <v>2681.921447781306</v>
       </c>
       <c r="Q18" t="n">
         <v>2681.921447781306</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.4090442963661</v>
+        <v>407.093532502253</v>
       </c>
       <c r="C19" t="n">
-        <v>152.4090442963661</v>
+        <v>407.093532502253</v>
       </c>
       <c r="D19" t="n">
-        <v>152.4090442963661</v>
+        <v>407.093532502253</v>
       </c>
       <c r="E19" t="n">
-        <v>152.4090442963661</v>
+        <v>259.1804389198599</v>
       </c>
       <c r="F19" t="n">
-        <v>61.42348737315295</v>
+        <v>193.3432145373686</v>
       </c>
       <c r="G19" t="n">
-        <v>61.42348737315295</v>
+        <v>193.3432145373686</v>
       </c>
       <c r="H19" t="n">
-        <v>61.42348737315295</v>
+        <v>193.3432145373686</v>
       </c>
       <c r="I19" t="n">
         <v>61.42348737315295</v>
@@ -5707,16 +5707,16 @@
         <v>855.8756625438004</v>
       </c>
       <c r="V19" t="n">
-        <v>601.1911743379136</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="W19" t="n">
-        <v>601.1911743379136</v>
+        <v>855.8756625438004</v>
       </c>
       <c r="X19" t="n">
-        <v>373.2016234398963</v>
+        <v>627.8861116457831</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.4090442963661</v>
+        <v>407.093532502253</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1498.287238503435</v>
+        <v>1572.159323613396</v>
       </c>
       <c r="C20" t="n">
-        <v>1129.324721563024</v>
+        <v>1572.159323613396</v>
       </c>
       <c r="D20" t="n">
-        <v>771.059022956273</v>
+        <v>1213.893625006645</v>
       </c>
       <c r="E20" t="n">
-        <v>385.2707703580288</v>
+        <v>1213.893625006645</v>
       </c>
       <c r="F20" t="n">
-        <v>385.2707703580288</v>
+        <v>802.9077202170375</v>
       </c>
       <c r="G20" t="n">
         <v>385.2707703580288</v>
@@ -5750,10 +5750,10 @@
         <v>61.42348737315295</v>
       </c>
       <c r="J20" t="n">
-        <v>204.3809688641029</v>
+        <v>204.3809688641031</v>
       </c>
       <c r="K20" t="n">
-        <v>539.3819799625986</v>
+        <v>539.3819799625988</v>
       </c>
       <c r="L20" t="n">
         <v>1007.256984588249</v>
@@ -5762,7 +5762,7 @@
         <v>1544.464622569331</v>
       </c>
       <c r="N20" t="n">
-        <v>2075.732844220429</v>
+        <v>2075.732844220428</v>
       </c>
       <c r="O20" t="n">
         <v>2532.206723101795</v>
@@ -5783,19 +5783,19 @@
         <v>3071.174368657647</v>
       </c>
       <c r="U20" t="n">
-        <v>3071.174368657647</v>
+        <v>2817.438731955163</v>
       </c>
       <c r="V20" t="n">
-        <v>3001.260824074563</v>
+        <v>2486.375844611593</v>
       </c>
       <c r="W20" t="n">
-        <v>2648.492168804449</v>
+        <v>2486.375844611593</v>
       </c>
       <c r="X20" t="n">
-        <v>2275.026410543369</v>
+        <v>2112.910086350513</v>
       </c>
       <c r="Y20" t="n">
-        <v>1884.887078567557</v>
+        <v>1958.759163677517</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>61.42348737315295</v>
       </c>
       <c r="J21" t="n">
-        <v>61.42348737315295</v>
+        <v>152.8746043093673</v>
       </c>
       <c r="K21" t="n">
-        <v>224.3132334070478</v>
+        <v>284.1459330402485</v>
       </c>
       <c r="L21" t="n">
-        <v>666.1457022342951</v>
+        <v>725.9784018674957</v>
       </c>
       <c r="M21" t="n">
-        <v>1233.722575104782</v>
+        <v>1293.555274737982</v>
       </c>
       <c r="N21" t="n">
-        <v>1832.028532309912</v>
+        <v>1638.0759303756</v>
       </c>
       <c r="O21" t="n">
-        <v>2312.945916345017</v>
+        <v>2118.993314410705</v>
       </c>
       <c r="P21" t="n">
-        <v>2681.921447781306</v>
+        <v>2487.968845846993</v>
       </c>
       <c r="Q21" t="n">
         <v>2681.921447781306</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2743.688109409635</v>
+        <v>96.71416479159672</v>
       </c>
       <c r="C22" t="n">
-        <v>2574.751926481728</v>
+        <v>96.71416479159672</v>
       </c>
       <c r="D22" t="n">
-        <v>2424.635287069393</v>
+        <v>96.71416479159672</v>
       </c>
       <c r="E22" t="n">
-        <v>2276.722193486999</v>
+        <v>96.71416479159672</v>
       </c>
       <c r="F22" t="n">
-        <v>2276.722193486999</v>
+        <v>96.71416479159672</v>
       </c>
       <c r="G22" t="n">
-        <v>2276.722193486999</v>
+        <v>96.71416479159672</v>
       </c>
       <c r="H22" t="n">
-        <v>2276.722193486999</v>
+        <v>96.71416479159672</v>
       </c>
       <c r="I22" t="n">
-        <v>2276.722193486999</v>
+        <v>96.71416479159672</v>
       </c>
       <c r="J22" t="n">
-        <v>2276.722193486999</v>
+        <v>61.42348737315295</v>
       </c>
       <c r="K22" t="n">
-        <v>2349.71967546929</v>
+        <v>134.420969355444</v>
       </c>
       <c r="L22" t="n">
-        <v>2498.657754856164</v>
+        <v>283.3590487423174</v>
       </c>
       <c r="M22" t="n">
-        <v>2666.081200004474</v>
+        <v>450.7824938906277</v>
       </c>
       <c r="N22" t="n">
-        <v>2834.958306258811</v>
+        <v>619.659600144964</v>
       </c>
       <c r="O22" t="n">
-        <v>2974.92735192191</v>
+        <v>759.6286458080635</v>
       </c>
       <c r="P22" t="n">
-        <v>3071.174368657647</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="Q22" t="n">
-        <v>3071.174368657647</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="R22" t="n">
-        <v>3071.174368657647</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="S22" t="n">
-        <v>3071.174368657647</v>
+        <v>644.142379998024</v>
       </c>
       <c r="T22" t="n">
-        <v>3071.174368657647</v>
+        <v>644.142379998024</v>
       </c>
       <c r="U22" t="n">
-        <v>3071.174368657647</v>
+        <v>644.142379998024</v>
       </c>
       <c r="V22" t="n">
-        <v>3071.174368657647</v>
+        <v>644.142379998024</v>
       </c>
       <c r="W22" t="n">
-        <v>2781.757198620687</v>
+        <v>354.7252099610634</v>
       </c>
       <c r="X22" t="n">
-        <v>2781.757198620687</v>
+        <v>126.7356590630461</v>
       </c>
       <c r="Y22" t="n">
-        <v>2781.757198620687</v>
+        <v>96.71416479159672</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>943.7724938162283</v>
+        <v>895.0980608976313</v>
       </c>
       <c r="C23" t="n">
-        <v>943.7724938162283</v>
+        <v>526.1355439572196</v>
       </c>
       <c r="D23" t="n">
-        <v>943.7724938162283</v>
+        <v>526.1355439572196</v>
       </c>
       <c r="E23" t="n">
-        <v>943.7724938162283</v>
+        <v>526.1355439572196</v>
       </c>
       <c r="F23" t="n">
-        <v>943.7724938162283</v>
+        <v>526.1355439572196</v>
       </c>
       <c r="G23" t="n">
         <v>526.1355439572196</v>
@@ -5987,7 +5987,7 @@
         <v>61.42348737315295</v>
       </c>
       <c r="J23" t="n">
-        <v>204.3809688641029</v>
+        <v>204.380968864103</v>
       </c>
       <c r="K23" t="n">
         <v>539.3819799625986</v>
@@ -5996,7 +5996,7 @@
         <v>1007.256984588248</v>
       </c>
       <c r="M23" t="n">
-        <v>1544.464622569331</v>
+        <v>1544.46462256933</v>
       </c>
       <c r="N23" t="n">
         <v>2075.732844220428</v>
@@ -6014,25 +6014,25 @@
         <v>3071.174368657647</v>
       </c>
       <c r="S23" t="n">
-        <v>2902.445163179725</v>
+        <v>2982.870170514814</v>
       </c>
       <c r="T23" t="n">
-        <v>2700.48171608984</v>
+        <v>2982.870170514814</v>
       </c>
       <c r="U23" t="n">
-        <v>2446.746079387356</v>
+        <v>2729.13453381233</v>
       </c>
       <c r="V23" t="n">
-        <v>2446.746079387356</v>
+        <v>2398.071646468759</v>
       </c>
       <c r="W23" t="n">
-        <v>2093.977424117242</v>
+        <v>2045.302991198645</v>
       </c>
       <c r="X23" t="n">
-        <v>1720.511665856162</v>
+        <v>1671.837232937565</v>
       </c>
       <c r="Y23" t="n">
-        <v>1330.37233388035</v>
+        <v>1281.697900961753</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>61.42348737315295</v>
       </c>
       <c r="J24" t="n">
-        <v>61.42348737315295</v>
+        <v>152.8746043093673</v>
       </c>
       <c r="K24" t="n">
-        <v>224.3132334070478</v>
+        <v>435.7999723877633</v>
       </c>
       <c r="L24" t="n">
-        <v>666.1457022342951</v>
+        <v>877.6324412150105</v>
       </c>
       <c r="M24" t="n">
-        <v>1233.722575104782</v>
+        <v>1445.209314085497</v>
       </c>
       <c r="N24" t="n">
-        <v>1832.028532309912</v>
+        <v>2043.515271290627</v>
       </c>
       <c r="O24" t="n">
-        <v>2312.945916345017</v>
+        <v>2312.945916345018</v>
       </c>
       <c r="P24" t="n">
         <v>2681.921447781306</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>225.4450676720133</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="C25" t="n">
-        <v>61.42348737315295</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="D25" t="n">
-        <v>61.42348737315295</v>
+        <v>848.7349269335713</v>
       </c>
       <c r="E25" t="n">
-        <v>61.42348737315295</v>
+        <v>700.8218333511782</v>
       </c>
       <c r="F25" t="n">
-        <v>61.42348737315295</v>
+        <v>553.9318858532678</v>
       </c>
       <c r="G25" t="n">
-        <v>61.42348737315295</v>
+        <v>385.0787029468254</v>
       </c>
       <c r="H25" t="n">
-        <v>61.42348737315295</v>
+        <v>228.6338919558123</v>
       </c>
       <c r="I25" t="n">
-        <v>61.42348737315295</v>
+        <v>96.71416479159672</v>
       </c>
       <c r="J25" t="n">
         <v>61.42348737315295</v>
@@ -6151,46 +6151,46 @@
         <v>134.420969355444</v>
       </c>
       <c r="L25" t="n">
-        <v>283.3590487423176</v>
+        <v>283.3590487423174</v>
       </c>
       <c r="M25" t="n">
-        <v>450.7824938906278</v>
+        <v>450.7824938906277</v>
       </c>
       <c r="N25" t="n">
-        <v>619.6596001449641</v>
+        <v>619.659600144964</v>
       </c>
       <c r="O25" t="n">
-        <v>759.6286458080638</v>
+        <v>759.6286458080635</v>
       </c>
       <c r="P25" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="Q25" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="R25" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="S25" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="T25" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="U25" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="V25" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="W25" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="X25" t="n">
-        <v>627.8861116457831</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="Y25" t="n">
-        <v>407.093532502253</v>
+        <v>855.8756625438002</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1653.434224270175</v>
+        <v>1920.969438356634</v>
       </c>
       <c r="C26" t="n">
-        <v>1284.471707329764</v>
+        <v>1599.681877604889</v>
       </c>
       <c r="D26" t="n">
-        <v>926.2060087230132</v>
+        <v>1599.681877604889</v>
       </c>
       <c r="E26" t="n">
-        <v>540.4177561247689</v>
+        <v>1213.893625006645</v>
       </c>
       <c r="F26" t="n">
-        <v>540.4177561247689</v>
+        <v>802.9077202170375</v>
       </c>
       <c r="G26" t="n">
-        <v>122.7808062657601</v>
+        <v>385.2707703580288</v>
       </c>
       <c r="H26" t="n">
-        <v>122.7808062657601</v>
+        <v>61.42348737315295</v>
       </c>
       <c r="I26" t="n">
         <v>61.42348737315295</v>
       </c>
       <c r="J26" t="n">
-        <v>204.3809688641029</v>
+        <v>204.380968864103</v>
       </c>
       <c r="K26" t="n">
         <v>539.3819799625986</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.256984588248</v>
+        <v>1007.256984588249</v>
       </c>
       <c r="M26" t="n">
         <v>1544.464622569331</v>
@@ -6248,28 +6248,28 @@
         <v>3071.174368657647</v>
       </c>
       <c r="R26" t="n">
-        <v>3036.677688282707</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="S26" t="n">
-        <v>3036.677688282707</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="T26" t="n">
-        <v>3036.677688282707</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="U26" t="n">
-        <v>2782.942051580223</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="V26" t="n">
-        <v>2782.942051580223</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="W26" t="n">
-        <v>2430.173396310109</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="X26" t="n">
-        <v>2430.173396310109</v>
+        <v>2697.708610396568</v>
       </c>
       <c r="Y26" t="n">
-        <v>2040.034064334297</v>
+        <v>2307.569278420756</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>61.42348737315295</v>
       </c>
       <c r="J27" t="n">
-        <v>61.42348737315295</v>
+        <v>98.95567334921101</v>
       </c>
       <c r="K27" t="n">
-        <v>224.3132334070478</v>
+        <v>224.3132334070484</v>
       </c>
       <c r="L27" t="n">
-        <v>666.1457022342951</v>
+        <v>666.1457022342956</v>
       </c>
       <c r="M27" t="n">
         <v>1233.722575104782</v>
@@ -6318,7 +6318,7 @@
         <v>1832.028532309912</v>
       </c>
       <c r="O27" t="n">
-        <v>2312.945916345017</v>
+        <v>2312.945916345018</v>
       </c>
       <c r="P27" t="n">
         <v>2681.921447781306</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>230.3596703010599</v>
+        <v>629.1939311847278</v>
       </c>
       <c r="C28" t="n">
-        <v>61.42348737315295</v>
+        <v>629.1939311847278</v>
       </c>
       <c r="D28" t="n">
-        <v>61.42348737315295</v>
+        <v>629.1939311847278</v>
       </c>
       <c r="E28" t="n">
-        <v>61.42348737315295</v>
+        <v>533.6114287685187</v>
       </c>
       <c r="F28" t="n">
-        <v>61.42348737315295</v>
+        <v>386.7214812706084</v>
       </c>
       <c r="G28" t="n">
-        <v>61.42348737315295</v>
+        <v>217.868298364166</v>
       </c>
       <c r="H28" t="n">
         <v>61.42348737315295</v>
@@ -6388,46 +6388,46 @@
         <v>134.420969355444</v>
       </c>
       <c r="L28" t="n">
-        <v>283.3590487423176</v>
+        <v>283.3590487423174</v>
       </c>
       <c r="M28" t="n">
-        <v>450.7824938906278</v>
+        <v>450.7824938906277</v>
       </c>
       <c r="N28" t="n">
-        <v>619.6596001449641</v>
+        <v>619.659600144964</v>
       </c>
       <c r="O28" t="n">
-        <v>759.6286458080638</v>
+        <v>759.6286458080635</v>
       </c>
       <c r="P28" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="Q28" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="R28" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="S28" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="T28" t="n">
-        <v>855.8756625438004</v>
+        <v>629.1939311847278</v>
       </c>
       <c r="U28" t="n">
-        <v>855.8756625438004</v>
+        <v>629.1939311847278</v>
       </c>
       <c r="V28" t="n">
-        <v>855.8756625438004</v>
+        <v>629.1939311847278</v>
       </c>
       <c r="W28" t="n">
-        <v>855.8756625438004</v>
+        <v>629.1939311847278</v>
       </c>
       <c r="X28" t="n">
-        <v>632.8007142748297</v>
+        <v>629.1939311847278</v>
       </c>
       <c r="Y28" t="n">
-        <v>412.0081351312996</v>
+        <v>629.1939311847278</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1171.870237157449</v>
+        <v>2040.69955991523</v>
       </c>
       <c r="C29" t="n">
-        <v>802.9077202170374</v>
+        <v>1671.737042974818</v>
       </c>
       <c r="D29" t="n">
-        <v>802.9077202170374</v>
+        <v>1313.471344368068</v>
       </c>
       <c r="E29" t="n">
-        <v>802.9077202170374</v>
+        <v>927.6830917698235</v>
       </c>
       <c r="F29" t="n">
-        <v>802.9077202170374</v>
+        <v>516.697186980216</v>
       </c>
       <c r="G29" t="n">
-        <v>385.2707703580288</v>
+        <v>99.06023712120725</v>
       </c>
       <c r="H29" t="n">
-        <v>61.42348737315295</v>
+        <v>99.06023712120725</v>
       </c>
       <c r="I29" t="n">
         <v>61.42348737315295</v>
       </c>
       <c r="J29" t="n">
-        <v>204.3809688641029</v>
+        <v>204.3809688641031</v>
       </c>
       <c r="K29" t="n">
-        <v>539.3819799625986</v>
+        <v>539.3819799625988</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.256984588248</v>
+        <v>1007.256984588249</v>
       </c>
       <c r="M29" t="n">
         <v>1544.464622569331</v>
@@ -6485,28 +6485,28 @@
         <v>3071.174368657647</v>
       </c>
       <c r="R29" t="n">
-        <v>3036.677688282707</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="S29" t="n">
-        <v>3036.677688282707</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="T29" t="n">
-        <v>3036.677688282707</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="U29" t="n">
-        <v>2782.942051580223</v>
+        <v>2817.438731955163</v>
       </c>
       <c r="V29" t="n">
-        <v>2451.879164236652</v>
+        <v>2817.438731955163</v>
       </c>
       <c r="W29" t="n">
-        <v>2099.110508966538</v>
+        <v>2817.438731955163</v>
       </c>
       <c r="X29" t="n">
-        <v>1948.609409197383</v>
+        <v>2817.438731955163</v>
       </c>
       <c r="Y29" t="n">
-        <v>1558.470077221571</v>
+        <v>2427.299399979352</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>61.42348737315295</v>
       </c>
       <c r="J30" t="n">
-        <v>61.42348737315295</v>
+        <v>119.2348601561077</v>
       </c>
       <c r="K30" t="n">
-        <v>224.3132334070478</v>
+        <v>402.1602282345037</v>
       </c>
       <c r="L30" t="n">
-        <v>666.1457022342951</v>
+        <v>843.992697061751</v>
       </c>
       <c r="M30" t="n">
-        <v>1233.722575104782</v>
+        <v>1164.328016591453</v>
       </c>
       <c r="N30" t="n">
-        <v>1832.028532309912</v>
+        <v>1762.633973796583</v>
       </c>
       <c r="O30" t="n">
-        <v>2312.945916345017</v>
+        <v>2243.551357831689</v>
       </c>
       <c r="P30" t="n">
-        <v>2681.921447781306</v>
+        <v>2612.526889267976</v>
       </c>
       <c r="Q30" t="n">
         <v>2681.921447781306</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>855.8756625438004</v>
+        <v>208.3134348710633</v>
       </c>
       <c r="C31" t="n">
-        <v>855.8756625438004</v>
+        <v>208.3134348710633</v>
       </c>
       <c r="D31" t="n">
-        <v>813.4442495151275</v>
+        <v>208.3134348710633</v>
       </c>
       <c r="E31" t="n">
-        <v>665.5311559327344</v>
+        <v>208.3134348710633</v>
       </c>
       <c r="F31" t="n">
-        <v>518.641208434824</v>
+        <v>61.42348737315295</v>
       </c>
       <c r="G31" t="n">
-        <v>349.7880255283816</v>
+        <v>61.42348737315295</v>
       </c>
       <c r="H31" t="n">
-        <v>193.3432145373686</v>
+        <v>61.42348737315295</v>
       </c>
       <c r="I31" t="n">
         <v>61.42348737315295</v>
@@ -6625,46 +6625,46 @@
         <v>134.420969355444</v>
       </c>
       <c r="L31" t="n">
-        <v>283.3590487423176</v>
+        <v>283.3590487423174</v>
       </c>
       <c r="M31" t="n">
-        <v>450.7824938906278</v>
+        <v>450.7824938906277</v>
       </c>
       <c r="N31" t="n">
-        <v>619.6596001449641</v>
+        <v>619.659600144964</v>
       </c>
       <c r="O31" t="n">
-        <v>759.6286458080638</v>
+        <v>759.6286458080635</v>
       </c>
       <c r="P31" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="Q31" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="R31" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="S31" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="T31" t="n">
-        <v>855.8756625438004</v>
+        <v>725.4685988042277</v>
       </c>
       <c r="U31" t="n">
-        <v>855.8756625438004</v>
+        <v>436.3029857690806</v>
       </c>
       <c r="V31" t="n">
-        <v>855.8756625438004</v>
+        <v>436.3029857690806</v>
       </c>
       <c r="W31" t="n">
-        <v>855.8756625438004</v>
+        <v>436.3029857690806</v>
       </c>
       <c r="X31" t="n">
-        <v>855.8756625438004</v>
+        <v>208.3134348710633</v>
       </c>
       <c r="Y31" t="n">
-        <v>855.8756625438004</v>
+        <v>208.3134348710633</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1957.94757621164</v>
+        <v>562.9725281175415</v>
       </c>
       <c r="C32" t="n">
-        <v>1957.94757621164</v>
+        <v>194.0100111771298</v>
       </c>
       <c r="D32" t="n">
-        <v>1599.681877604889</v>
+        <v>194.0100111771298</v>
       </c>
       <c r="E32" t="n">
-        <v>1213.893625006645</v>
+        <v>194.0100111771298</v>
       </c>
       <c r="F32" t="n">
-        <v>802.9077202170374</v>
+        <v>194.0100111771298</v>
       </c>
       <c r="G32" t="n">
-        <v>385.2707703580288</v>
+        <v>194.0100111771298</v>
       </c>
       <c r="H32" t="n">
-        <v>61.42348737315295</v>
+        <v>194.0100111771298</v>
       </c>
       <c r="I32" t="n">
         <v>61.42348737315295</v>
       </c>
       <c r="J32" t="n">
-        <v>204.3809688641029</v>
+        <v>204.3809688641031</v>
       </c>
       <c r="K32" t="n">
-        <v>539.3819799625986</v>
+        <v>539.3819799625988</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.256984588248</v>
+        <v>1007.256984588249</v>
       </c>
       <c r="M32" t="n">
         <v>1544.464622569331</v>
@@ -6725,25 +6725,25 @@
         <v>3036.677688282707</v>
       </c>
       <c r="S32" t="n">
-        <v>3031.918450801137</v>
+        <v>2867.948482804784</v>
       </c>
       <c r="T32" t="n">
-        <v>3031.918450801137</v>
+        <v>2650.744637734724</v>
       </c>
       <c r="U32" t="n">
-        <v>3031.918450801137</v>
+        <v>2397.00900103224</v>
       </c>
       <c r="V32" t="n">
-        <v>2700.855563457566</v>
+        <v>2065.946113688669</v>
       </c>
       <c r="W32" t="n">
-        <v>2348.086908187452</v>
+        <v>1713.177458418555</v>
       </c>
       <c r="X32" t="n">
-        <v>2348.086908187452</v>
+        <v>1339.711700157475</v>
       </c>
       <c r="Y32" t="n">
-        <v>1957.94757621164</v>
+        <v>949.5723681816633</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>61.42348737315295</v>
       </c>
       <c r="J33" t="n">
-        <v>61.42348737315295</v>
+        <v>152.8746043093673</v>
       </c>
       <c r="K33" t="n">
-        <v>224.3132334070478</v>
+        <v>278.2321643672047</v>
       </c>
       <c r="L33" t="n">
-        <v>666.1457022342951</v>
+        <v>720.064633194452</v>
       </c>
       <c r="M33" t="n">
-        <v>1233.722575104782</v>
+        <v>1287.641506064938</v>
       </c>
       <c r="N33" t="n">
         <v>1832.028532309912</v>
       </c>
       <c r="O33" t="n">
-        <v>2312.945916345017</v>
+        <v>2312.945916345018</v>
       </c>
       <c r="P33" t="n">
         <v>2681.921447781306</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>116.792915843695</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="C34" t="n">
-        <v>61.42348737315295</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="D34" t="n">
-        <v>61.42348737315295</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="E34" t="n">
-        <v>61.42348737315295</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="F34" t="n">
-        <v>61.42348737315295</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="G34" t="n">
-        <v>61.42348737315295</v>
+        <v>2600.377409060672</v>
       </c>
       <c r="H34" t="n">
-        <v>61.42348737315295</v>
+        <v>2443.932598069659</v>
       </c>
       <c r="I34" t="n">
-        <v>61.42348737315295</v>
+        <v>2312.012870905443</v>
       </c>
       <c r="J34" t="n">
-        <v>61.42348737315295</v>
+        <v>2276.722193486999</v>
       </c>
       <c r="K34" t="n">
-        <v>134.420969355444</v>
+        <v>2349.71967546929</v>
       </c>
       <c r="L34" t="n">
-        <v>283.3590487423176</v>
+        <v>2498.657754856164</v>
       </c>
       <c r="M34" t="n">
-        <v>450.7824938906278</v>
+        <v>2666.081200004474</v>
       </c>
       <c r="N34" t="n">
-        <v>619.6596001449641</v>
+        <v>2834.958306258811</v>
       </c>
       <c r="O34" t="n">
-        <v>759.6286458080638</v>
+        <v>2974.92735192191</v>
       </c>
       <c r="P34" t="n">
-        <v>855.8756625438004</v>
+        <v>3071.174368657647</v>
       </c>
       <c r="Q34" t="n">
-        <v>838.7359475699619</v>
+        <v>3054.034653683809</v>
       </c>
       <c r="R34" t="n">
-        <v>838.7359475699619</v>
+        <v>2912.480444562937</v>
       </c>
       <c r="S34" t="n">
-        <v>627.0026650241857</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="T34" t="n">
-        <v>627.0026650241857</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="U34" t="n">
-        <v>627.0026650241857</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="V34" t="n">
-        <v>627.0026650241857</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="W34" t="n">
-        <v>337.5854949872251</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="X34" t="n">
-        <v>337.5854949872251</v>
+        <v>2769.230591967114</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.792915843695</v>
+        <v>2769.230591967114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1237.137895742949</v>
+        <v>1752.240232878711</v>
       </c>
       <c r="C35" t="n">
-        <v>868.1753788025374</v>
+        <v>1383.2777159383</v>
       </c>
       <c r="D35" t="n">
-        <v>509.9096801957868</v>
+        <v>1025.012017331549</v>
       </c>
       <c r="E35" t="n">
-        <v>509.9096801957868</v>
+        <v>639.223764733305</v>
       </c>
       <c r="F35" t="n">
-        <v>509.9096801957868</v>
+        <v>228.2378599436974</v>
       </c>
       <c r="G35" t="n">
-        <v>509.9096801957868</v>
+        <v>228.2378599436974</v>
       </c>
       <c r="H35" t="n">
-        <v>186.0623972109111</v>
+        <v>61.42348737315295</v>
       </c>
       <c r="I35" t="n">
         <v>61.42348737315295</v>
       </c>
       <c r="J35" t="n">
-        <v>204.3809688641029</v>
+        <v>204.380968864103</v>
       </c>
       <c r="K35" t="n">
         <v>539.3819799625986</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.256984588248</v>
+        <v>1007.256984588249</v>
       </c>
       <c r="M35" t="n">
         <v>1544.464622569331</v>
@@ -6962,25 +6962,25 @@
         <v>3071.174368657647</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.174368657647</v>
+        <v>2902.445163179725</v>
       </c>
       <c r="T35" t="n">
-        <v>3071.174368657647</v>
+        <v>2902.445163179725</v>
       </c>
       <c r="U35" t="n">
-        <v>3071.174368657647</v>
+        <v>2902.445163179725</v>
       </c>
       <c r="V35" t="n">
-        <v>2740.111481314077</v>
+        <v>2902.445163179725</v>
       </c>
       <c r="W35" t="n">
-        <v>2387.342826043962</v>
+        <v>2902.445163179725</v>
       </c>
       <c r="X35" t="n">
-        <v>2013.877067782882</v>
+        <v>2528.979404918645</v>
       </c>
       <c r="Y35" t="n">
-        <v>1623.737735807071</v>
+        <v>2138.840072942833</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>61.42348737315295</v>
       </c>
       <c r="K36" t="n">
-        <v>344.348855451549</v>
+        <v>224.3132334070484</v>
       </c>
       <c r="L36" t="n">
-        <v>786.1813242787962</v>
+        <v>666.1457022342956</v>
       </c>
       <c r="M36" t="n">
-        <v>1353.758197149283</v>
+        <v>1233.722575104782</v>
       </c>
       <c r="N36" t="n">
-        <v>1952.064154354413</v>
+        <v>1832.028532309912</v>
       </c>
       <c r="O36" t="n">
-        <v>2432.981538389518</v>
+        <v>2312.945916345018</v>
       </c>
       <c r="P36" t="n">
         <v>2681.921447781306</v>
@@ -7099,37 +7099,37 @@
         <v>134.420969355444</v>
       </c>
       <c r="L37" t="n">
-        <v>283.3590487423176</v>
+        <v>283.3590487423174</v>
       </c>
       <c r="M37" t="n">
-        <v>450.7824938906278</v>
+        <v>450.7824938906277</v>
       </c>
       <c r="N37" t="n">
-        <v>619.6596001449641</v>
+        <v>619.659600144964</v>
       </c>
       <c r="O37" t="n">
-        <v>759.6286458080638</v>
+        <v>759.6286458080635</v>
       </c>
       <c r="P37" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="Q37" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438002</v>
       </c>
       <c r="R37" t="n">
-        <v>855.8756625438004</v>
+        <v>714.3214534229284</v>
       </c>
       <c r="S37" t="n">
-        <v>855.8756625438004</v>
+        <v>502.5881708771522</v>
       </c>
       <c r="T37" t="n">
-        <v>855.8756625438004</v>
+        <v>275.9064395180798</v>
       </c>
       <c r="U37" t="n">
-        <v>566.7100495086534</v>
+        <v>61.42348737315295</v>
       </c>
       <c r="V37" t="n">
-        <v>350.8406574101136</v>
+        <v>61.42348737315295</v>
       </c>
       <c r="W37" t="n">
         <v>61.42348737315295</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1920.969438356634</v>
+        <v>1644.797111560425</v>
       </c>
       <c r="C38" t="n">
-        <v>1552.006921416222</v>
+        <v>1275.834594620014</v>
       </c>
       <c r="D38" t="n">
         <v>1275.834594620014</v>
@@ -7163,28 +7163,28 @@
         <v>479.0604372321617</v>
       </c>
       <c r="G38" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H38" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I38" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J38" t="n">
-        <v>204.3809688641027</v>
+        <v>204.3809688641029</v>
       </c>
       <c r="K38" t="n">
-        <v>539.3819799625981</v>
+        <v>539.381979962599</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.256984588248</v>
+        <v>1007.256984588249</v>
       </c>
       <c r="M38" t="n">
-        <v>1544.46462256933</v>
+        <v>1544.464622569332</v>
       </c>
       <c r="N38" t="n">
-        <v>2075.732844220428</v>
+        <v>2075.732844220429</v>
       </c>
       <c r="O38" t="n">
         <v>2532.206723101795</v>
@@ -7193,31 +7193,31 @@
         <v>2884.122234923072</v>
       </c>
       <c r="Q38" t="n">
-        <v>3071.174368657647</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="R38" t="n">
-        <v>3071.174368657647</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.174368657647</v>
+        <v>2867.948482804785</v>
       </c>
       <c r="T38" t="n">
-        <v>3071.174368657647</v>
+        <v>2867.948482804785</v>
       </c>
       <c r="U38" t="n">
-        <v>3071.174368657647</v>
+        <v>2614.212846102301</v>
       </c>
       <c r="V38" t="n">
-        <v>3071.174368657647</v>
+        <v>2614.212846102301</v>
       </c>
       <c r="W38" t="n">
-        <v>3071.174368657647</v>
+        <v>2408.402201797317</v>
       </c>
       <c r="X38" t="n">
-        <v>2697.708610396568</v>
+        <v>2034.936443536237</v>
       </c>
       <c r="Y38" t="n">
-        <v>2307.569278420756</v>
+        <v>1644.797111560425</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J39" t="n">
-        <v>152.8746043093673</v>
+        <v>152.8746043093674</v>
       </c>
       <c r="K39" t="n">
-        <v>435.7999723877633</v>
+        <v>278.2321643672048</v>
       </c>
       <c r="L39" t="n">
-        <v>877.6324412150107</v>
+        <v>720.0646331944522</v>
       </c>
       <c r="M39" t="n">
-        <v>1445.209314085497</v>
+        <v>1164.328016591452</v>
       </c>
       <c r="N39" t="n">
-        <v>1638.0759303756</v>
+        <v>1762.633973796583</v>
       </c>
       <c r="O39" t="n">
-        <v>2118.993314410705</v>
+        <v>2243.551357831688</v>
       </c>
       <c r="P39" t="n">
-        <v>2487.968845846993</v>
+        <v>2612.526889267976</v>
       </c>
       <c r="Q39" t="n">
         <v>2681.921447781306</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="C40" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="D40" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="E40" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="F40" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="G40" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H40" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I40" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J40" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K40" t="n">
         <v>134.420969355444</v>
@@ -7342,40 +7342,40 @@
         <v>450.7824938906278</v>
       </c>
       <c r="N40" t="n">
-        <v>619.6596001449641</v>
+        <v>619.6596001449642</v>
       </c>
       <c r="O40" t="n">
-        <v>759.6286458080638</v>
+        <v>759.6286458080639</v>
       </c>
       <c r="P40" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="Q40" t="n">
-        <v>855.8756625438004</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="R40" t="n">
-        <v>855.8756625438004</v>
+        <v>727.8280521760189</v>
       </c>
       <c r="S40" t="n">
-        <v>855.8756625438004</v>
+        <v>516.0947696302427</v>
       </c>
       <c r="T40" t="n">
-        <v>855.8756625438004</v>
+        <v>289.4130382711703</v>
       </c>
       <c r="U40" t="n">
-        <v>855.8756625438004</v>
+        <v>289.4130382711703</v>
       </c>
       <c r="V40" t="n">
-        <v>799.622787451661</v>
+        <v>289.4130382711703</v>
       </c>
       <c r="W40" t="n">
-        <v>510.2056174147004</v>
+        <v>289.4130382711703</v>
       </c>
       <c r="X40" t="n">
-        <v>282.216066516683</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.42348737315295</v>
+        <v>61.42348737315297</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1237.13789574295</v>
+        <v>1399.873632561372</v>
       </c>
       <c r="C41" t="n">
-        <v>868.1753788025383</v>
+        <v>1030.91111562096</v>
       </c>
       <c r="D41" t="n">
-        <v>509.9096801957878</v>
+        <v>1030.91111562096</v>
       </c>
       <c r="E41" t="n">
-        <v>124.1214275975435</v>
+        <v>1030.91111562096</v>
       </c>
       <c r="F41" t="n">
-        <v>61.42348737315297</v>
+        <v>619.9252108313525</v>
       </c>
       <c r="G41" t="n">
-        <v>61.42348737315297</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="H41" t="n">
-        <v>61.42348737315297</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="I41" t="n">
         <v>61.42348737315297</v>
       </c>
       <c r="J41" t="n">
-        <v>204.3809688641029</v>
+        <v>204.380968864103</v>
       </c>
       <c r="K41" t="n">
-        <v>539.381979962599</v>
+        <v>539.3819799625988</v>
       </c>
       <c r="L41" t="n">
         <v>1007.256984588249</v>
       </c>
       <c r="M41" t="n">
-        <v>1544.464622569332</v>
+        <v>1544.464622569331</v>
       </c>
       <c r="N41" t="n">
         <v>2075.732844220429</v>
@@ -7442,19 +7442,19 @@
         <v>3071.174368657648</v>
       </c>
       <c r="U41" t="n">
-        <v>3071.174368657648</v>
+        <v>2817.438731955164</v>
       </c>
       <c r="V41" t="n">
-        <v>2740.111481314078</v>
+        <v>2486.375844611593</v>
       </c>
       <c r="W41" t="n">
-        <v>2387.342826043963</v>
+        <v>2486.375844611593</v>
       </c>
       <c r="X41" t="n">
-        <v>2013.877067782883</v>
+        <v>2112.910086350514</v>
       </c>
       <c r="Y41" t="n">
-        <v>1623.737735807072</v>
+        <v>1722.770754374702</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.0933340190467</v>
+        <v>1377.346254895389</v>
       </c>
       <c r="C42" t="n">
-        <v>813.6403047379197</v>
+        <v>1202.893225614262</v>
       </c>
       <c r="D42" t="n">
-        <v>664.7058950766684</v>
+        <v>1053.958815953011</v>
       </c>
       <c r="E42" t="n">
-        <v>505.4684400712129</v>
+        <v>894.7213609475555</v>
       </c>
       <c r="F42" t="n">
-        <v>358.9338820980978</v>
+        <v>748.1868029744404</v>
       </c>
       <c r="G42" t="n">
-        <v>221.198653622106</v>
+        <v>610.4515744984486</v>
       </c>
       <c r="H42" t="n">
-        <v>117.4448884899775</v>
+        <v>506.6978093663201</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42348737315297</v>
+        <v>450.6764082494956</v>
       </c>
       <c r="J42" t="n">
-        <v>61.42348737315297</v>
+        <v>542.1275251857101</v>
       </c>
       <c r="K42" t="n">
-        <v>344.348855451549</v>
+        <v>825.0528932641062</v>
       </c>
       <c r="L42" t="n">
-        <v>786.1813242787964</v>
+        <v>1266.885362091353</v>
       </c>
       <c r="M42" t="n">
-        <v>1353.758197149283</v>
+        <v>1834.46223496184</v>
       </c>
       <c r="N42" t="n">
-        <v>1952.064154354413</v>
+        <v>2432.76819216697</v>
       </c>
       <c r="O42" t="n">
-        <v>2432.981538389519</v>
+        <v>2681.521606250932</v>
       </c>
       <c r="P42" t="n">
-        <v>2487.968845846993</v>
+        <v>3050.49713768722</v>
       </c>
       <c r="Q42" t="n">
-        <v>2681.921447781306</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="R42" t="n">
-        <v>2642.56626176557</v>
+        <v>3031.819182641913</v>
       </c>
       <c r="S42" t="n">
-        <v>2487.641693737282</v>
+        <v>2876.894614613625</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.468053434381</v>
+        <v>2678.720974310724</v>
       </c>
       <c r="U42" t="n">
-        <v>2061.309934969546</v>
+        <v>2450.562855845888</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.157826737803</v>
+        <v>2215.410747614146</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.920470009601</v>
+        <v>1961.173390885944</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.068969804069</v>
+        <v>1753.321890680411</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.308671039115</v>
+        <v>1545.561591915457</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>225.4450676720135</v>
+        <v>338.7204986106362</v>
       </c>
       <c r="C43" t="n">
-        <v>225.4450676720135</v>
+        <v>338.7204986106362</v>
       </c>
       <c r="D43" t="n">
-        <v>225.4450676720135</v>
+        <v>338.7204986106362</v>
       </c>
       <c r="E43" t="n">
-        <v>225.4450676720135</v>
+        <v>338.7204986106362</v>
       </c>
       <c r="F43" t="n">
-        <v>225.4450676720135</v>
+        <v>338.7204986106362</v>
       </c>
       <c r="G43" t="n">
-        <v>217.868298364166</v>
+        <v>338.7204986106362</v>
       </c>
       <c r="H43" t="n">
-        <v>61.42348737315297</v>
+        <v>182.2756876196232</v>
       </c>
       <c r="I43" t="n">
-        <v>61.42348737315297</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="J43" t="n">
         <v>61.42348737315297</v>
@@ -7600,19 +7600,19 @@
         <v>855.8756625438007</v>
       </c>
       <c r="U43" t="n">
-        <v>855.8756625438007</v>
+        <v>566.7100495086536</v>
       </c>
       <c r="V43" t="n">
-        <v>855.8756625438007</v>
+        <v>566.7100495086536</v>
       </c>
       <c r="W43" t="n">
-        <v>855.8756625438007</v>
+        <v>566.7100495086536</v>
       </c>
       <c r="X43" t="n">
-        <v>627.8861116457833</v>
+        <v>338.7204986106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>407.0935325022532</v>
+        <v>338.7204986106362</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>124.1214275975435</v>
       </c>
       <c r="F44" t="n">
-        <v>61.42348737315297</v>
+        <v>124.1214275975435</v>
       </c>
       <c r="G44" t="n">
         <v>61.42348737315297</v>
@@ -7734,16 +7734,16 @@
         <v>786.1813242787964</v>
       </c>
       <c r="M45" t="n">
-        <v>1353.758197149283</v>
+        <v>1293.555274737982</v>
       </c>
       <c r="N45" t="n">
-        <v>1952.064154354413</v>
+        <v>1638.075930375599</v>
       </c>
       <c r="O45" t="n">
-        <v>2432.981538389519</v>
+        <v>2118.993314410705</v>
       </c>
       <c r="P45" t="n">
-        <v>2681.921447781306</v>
+        <v>2487.968845846993</v>
       </c>
       <c r="Q45" t="n">
         <v>2681.921447781306</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>275.9064395180802</v>
+        <v>844.1325337001415</v>
       </c>
       <c r="C46" t="n">
-        <v>275.9064395180802</v>
+        <v>675.1963507722346</v>
       </c>
       <c r="D46" t="n">
-        <v>275.9064395180802</v>
+        <v>525.0797113598989</v>
       </c>
       <c r="E46" t="n">
-        <v>275.9064395180802</v>
+        <v>377.1666177775057</v>
       </c>
       <c r="F46" t="n">
-        <v>275.9064395180802</v>
+        <v>230.2766702795954</v>
       </c>
       <c r="G46" t="n">
-        <v>275.9064395180802</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H46" t="n">
-        <v>228.6338919558123</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I46" t="n">
-        <v>96.7141647915967</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J46" t="n">
         <v>61.42348737315297</v>
@@ -7828,28 +7828,28 @@
         <v>855.8756625438007</v>
       </c>
       <c r="R46" t="n">
-        <v>714.3214534229288</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="S46" t="n">
-        <v>502.5881708771526</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="T46" t="n">
-        <v>275.9064395180802</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="U46" t="n">
-        <v>275.9064395180802</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="V46" t="n">
-        <v>275.9064395180802</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="W46" t="n">
-        <v>275.9064395180802</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="X46" t="n">
-        <v>275.9064395180802</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="Y46" t="n">
-        <v>275.9064395180802</v>
+        <v>855.8756625438007</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142013</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.0078369554704</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80768655059677</v>
+        <v>326.15647601273</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.0053685828288</v>
+        <v>14.16556861028096</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>33.71616974827309</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>143.2171339373249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.16556861028096</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>33.71616974827309</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>143.2171339373249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.16556861028096</v>
+        <v>14.16556861028097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>33.71616974827309</v>
+        <v>71.62746871398829</v>
       </c>
       <c r="K27" t="n">
-        <v>143.2171339373249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.16556861028096</v>
+        <v>14.16556861028097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>33.71616974827309</v>
+        <v>92.11149579166177</v>
       </c>
       <c r="K30" t="n">
-        <v>143.2171339373249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.16556861028096</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>33.71616974827309</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>143.2171339373249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.16556861028096</v>
+        <v>14.16556861028097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>197.2146655646839</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.16556861028096</v>
+        <v>14.16556861028097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>341.1459834737511</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80768655059626</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>33.71616974827306</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>1.302946439115168</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>35.05166049960204</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>33.71616974827306</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>197.2146655646833</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.16556861028093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.073742165531428</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>34.1517135711908</v>
       </c>
       <c r="S11" t="n">
-        <v>49.05508155197985</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T11" t="n">
         <v>215.03180661936</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>100.2475764768315</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>34.93777064425931</v>
@@ -23461,13 +23461,13 @@
         <v>16.96831782410013</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.1386670296631</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>209.6159497203185</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U13" t="n">
         <v>286.2739569047956</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>183.7025564906509</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>256.7154712635439</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>176.0644823396546</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>34.15171357119083</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>167.0419134231436</v>
       </c>
       <c r="T14" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23656,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>106.6083741198261</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.93777064425932</v>
+        <v>34.93777064425931</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,22 +23695,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.96831782410015</v>
+        <v>16.96831782410013</v>
       </c>
       <c r="R16" t="n">
         <v>140.1386670296631</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>209.6159497203185</v>
       </c>
       <c r="T16" t="n">
-        <v>185.9348105754828</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,16 +23729,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>260.245923627266</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>34.1517135711908</v>
       </c>
       <c r="S17" t="n">
         <v>167.0419134231436</v>
@@ -23786,19 +23786,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>238.5956807459473</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>55.34534666895019</v>
+        <v>80.24219588426487</v>
       </c>
       <c r="G19" t="n">
         <v>167.164651077378</v>
@@ -23908,7 +23908,7 @@
         <v>154.8803628811029</v>
       </c>
       <c r="I19" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>34.93777064425931</v>
@@ -23947,7 +23947,7 @@
         <v>286.2739569047956</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,25 +23969,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>139.4561258631989</v>
+        <v>139.456125863199</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>34.1517135711908</v>
+        <v>34.15171357119081</v>
       </c>
       <c r="S20" t="n">
         <v>167.0419134231436</v>
@@ -24023,19 +24023,19 @@
         <v>215.03180661936</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>258.5378493328814</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>233.6285252097881</v>
       </c>
     </row>
     <row r="21">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.1435818629963</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24148,7 +24148,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J22" t="n">
-        <v>34.93777064425931</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.96831782410013</v>
+        <v>16.96831782410014</v>
       </c>
       <c r="R22" t="n">
         <v>140.1386670296631</v>
       </c>
       <c r="S22" t="n">
-        <v>209.6159497203185</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>224.4149140454817</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>188.8633740233599</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24251,19 +24251,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>34.1517135711908</v>
+        <v>34.15171357119081</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>79.62075726173829</v>
       </c>
       <c r="T23" t="n">
-        <v>15.08799400037429</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>4.865456602756126</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>141.5461447640857</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.93777064425931</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.96831782410013</v>
+        <v>16.96831782410014</v>
       </c>
       <c r="R25" t="n">
         <v>140.1386670296631</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24443,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>47.19820662678035</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.71238015951783</v>
+        <v>139.456125863199</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>34.15171357119081</v>
       </c>
       <c r="S26" t="n">
         <v>167.0419134231436</v>
@@ -24497,16 +24497,16 @@
         <v>215.03180661936</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>51.80728525452218</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>130.6005298925735</v>
       </c>
       <c r="J28" t="n">
-        <v>34.93777064425931</v>
+        <v>34.93777064425932</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.96831782410013</v>
+        <v>16.96831782410014</v>
       </c>
       <c r="R28" t="n">
         <v>140.1386670296631</v>
@@ -24652,7 +24652,7 @@
         <v>209.6159497203185</v>
       </c>
       <c r="T28" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2739569047956</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>4.865456602756154</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,22 +24683,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.6088101550271</v>
       </c>
       <c r="I29" t="n">
-        <v>139.4561258631989</v>
+        <v>102.1957436126252</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>34.15171357119081</v>
       </c>
       <c r="S29" t="n">
         <v>167.0419134231436</v>
@@ -24737,13 +24737,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>220.7350119070052</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,25 +24841,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>106.6083741198261</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J31" t="n">
-        <v>34.93777064425931</v>
+        <v>34.93777064425932</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.96831782410013</v>
+        <v>16.96831782410014</v>
       </c>
       <c r="R31" t="n">
         <v>140.1386670296631</v>
@@ -24889,10 +24889,10 @@
         <v>209.6159497203185</v>
       </c>
       <c r="T31" t="n">
-        <v>224.4149140454817</v>
+        <v>95.31192094330484</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2739569047956</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.6088101550271</v>
       </c>
       <c r="I32" t="n">
-        <v>139.4561258631989</v>
+        <v>8.195467297261899</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24965,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>162.330268316389</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>112.4310869127912</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.93777064425931</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>140.1386670296631</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>67.79859565045408</v>
       </c>
       <c r="T34" t="n">
         <v>224.4149140454817</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25160,19 +25160,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.4605803604186</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>155.4625813101881</v>
       </c>
       <c r="I35" t="n">
-        <v>16.06360512381842</v>
+        <v>139.456125863199</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>34.1517135711908</v>
+        <v>34.15171357119081</v>
       </c>
       <c r="S35" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>215.03180661936</v>
@@ -25211,10 +25211,10 @@
         <v>251.1982803354592</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25333,7 +25333,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J37" t="n">
-        <v>34.93777064425931</v>
+        <v>34.93777064425932</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,25 +25354,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.96831782410013</v>
+        <v>16.96831782410014</v>
       </c>
       <c r="R37" t="n">
-        <v>140.1386670296631</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>209.6159497203185</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>73.93583428131805</v>
       </c>
       <c r="V37" t="n">
-        <v>38.42694514627362</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>81.27243809243623</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25436,22 +25436,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>34.1517135711908</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>215.03180661936</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>145.4884308554787</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25570,7 +25570,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J40" t="n">
-        <v>34.93777064425931</v>
+        <v>34.9377706442593</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25591,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.96831782410013</v>
+        <v>16.96831782410011</v>
       </c>
       <c r="R40" t="n">
-        <v>140.1386670296631</v>
+        <v>13.37153276555917</v>
       </c>
       <c r="S40" t="n">
-        <v>209.6159497203185</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2739569047956</v>
       </c>
       <c r="V40" t="n">
-        <v>196.4472969826099</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>63.06569106828374</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>344.8050849195648</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.608810155027</v>
       </c>
       <c r="I41" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,13 +25682,13 @@
         <v>215.03180661936</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>159.6636494626089</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>130.6005298925735</v>
+        <v>45.89462229282721</v>
       </c>
       <c r="J43" t="n">
-        <v>34.9377706442593</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>224.4149140454817</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2739569047956</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>344.8050849195648</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4605803604186</v>
+        <v>351.389619538272</v>
       </c>
       <c r="H44" t="n">
         <v>320.608810155027</v>
@@ -26020,31 +26020,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>168.2062826267147</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>108.0805407944577</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.9377706442593</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>16.96831782410011</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>140.1386670296631</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>209.6159497203184</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U46" t="n">
         <v>286.2739569047956</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676015.91807563</v>
+        <v>676015.9180756301</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676015.91807563</v>
+        <v>676015.9180756301</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676015.91807563</v>
+        <v>676015.9180756301</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676015.91807563</v>
+        <v>676015.9180756301</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676015.9180756301</v>
+        <v>676015.91807563</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117841</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
         <v>399463.9515901447</v>
       </c>
       <c r="F2" t="n">
+        <v>399463.9515901448</v>
+      </c>
+      <c r="G2" t="n">
+        <v>399463.9515901448</v>
+      </c>
+      <c r="H2" t="n">
+        <v>399463.9515901446</v>
+      </c>
+      <c r="I2" t="n">
         <v>399463.9515901447</v>
-      </c>
-      <c r="G2" t="n">
-        <v>399463.9515901446</v>
-      </c>
-      <c r="H2" t="n">
-        <v>399463.9515901447</v>
-      </c>
-      <c r="I2" t="n">
-        <v>399463.9515901449</v>
       </c>
       <c r="J2" t="n">
         <v>399463.9515901448</v>
@@ -26344,13 +26344,13 @@
         <v>399463.9515901448</v>
       </c>
       <c r="M2" t="n">
-        <v>399463.9515901447</v>
+        <v>399463.9515901448</v>
       </c>
       <c r="N2" t="n">
         <v>399463.9515901447</v>
       </c>
       <c r="O2" t="n">
-        <v>399463.9515901448</v>
+        <v>399463.9515901447</v>
       </c>
       <c r="P2" t="n">
         <v>399463.9515901447</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92587.18968571305</v>
+        <v>92587.18968571309</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142519.2600928463</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>142519.2600928464</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>142519.2600928464</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="F4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="G4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024953</v>
       </c>
       <c r="H4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="I4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="J4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="K4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="L4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="M4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="N4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="O4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="P4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024954</v>
       </c>
     </row>
     <row r="5">
@@ -26503,7 +26503,7 @@
         <v>56671.40811433501</v>
       </c>
       <c r="N5" t="n">
-        <v>56671.40811433501</v>
+        <v>56671.40811433503</v>
       </c>
       <c r="O5" t="n">
         <v>56671.40811433503</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281669.0669590159</v>
+        <v>-278208.9460467887</v>
       </c>
       <c r="C6" t="n">
-        <v>308298.8122555283</v>
+        <v>311758.9331677558</v>
       </c>
       <c r="D6" t="n">
-        <v>308298.8122555288</v>
+        <v>311758.9331677555</v>
       </c>
       <c r="E6" t="n">
-        <v>246305.1214313716</v>
+        <v>249645.1232811941</v>
       </c>
       <c r="F6" t="n">
-        <v>338892.3111170846</v>
+        <v>342232.3129669073</v>
       </c>
       <c r="G6" t="n">
-        <v>338892.3111170846</v>
+        <v>342232.3129669073</v>
       </c>
       <c r="H6" t="n">
-        <v>338892.3111170847</v>
+        <v>342232.3129669071</v>
       </c>
       <c r="I6" t="n">
-        <v>338892.3111170849</v>
+        <v>342232.3129669072</v>
       </c>
       <c r="J6" t="n">
-        <v>162469.0919244919</v>
+        <v>165809.0937743144</v>
       </c>
       <c r="K6" t="n">
-        <v>338892.3111170849</v>
+        <v>342232.3129669074</v>
       </c>
       <c r="L6" t="n">
-        <v>338892.3111170848</v>
+        <v>342232.3129669073</v>
       </c>
       <c r="M6" t="n">
-        <v>315590.1622948708</v>
+        <v>318930.1641446934</v>
       </c>
       <c r="N6" t="n">
-        <v>338892.3111170846</v>
+        <v>342232.3129669072</v>
       </c>
       <c r="O6" t="n">
-        <v>338892.3111170848</v>
+        <v>342232.3129669071</v>
       </c>
       <c r="P6" t="n">
-        <v>338892.3111170846</v>
+        <v>342232.3129669072</v>
       </c>
     </row>
   </sheetData>
@@ -26747,7 +26747,7 @@
         <v>458.2365922357235</v>
       </c>
       <c r="F3" t="n">
-        <v>458.2365922357234</v>
+        <v>458.2365922357235</v>
       </c>
       <c r="G3" t="n">
         <v>458.2365922357235</v>
@@ -26771,7 +26771,7 @@
         <v>458.2365922357235</v>
       </c>
       <c r="N3" t="n">
-        <v>458.2365922357235</v>
+        <v>458.2365922357237</v>
       </c>
       <c r="O3" t="n">
         <v>458.2365922357237</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26823,7 +26823,7 @@
         <v>767.7935921644118</v>
       </c>
       <c r="N4" t="n">
-        <v>767.7935921644118</v>
+        <v>767.7935921644121</v>
       </c>
       <c r="O4" t="n">
         <v>767.7935921644121</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.49292801863692</v>
+        <v>80.49292801863697</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>361.6700542658307</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>339.9115395625717</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F4" t="n">
-        <v>128.2883697226013</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>284.6296653965414</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>90.17475192286855</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>15.97112874102652</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>123.9453835684545</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>296.2020293175731</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>20.39139144845205</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>85.19271039829701</v>
       </c>
       <c r="V10" t="n">
-        <v>17.82694103524707</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31844,7 +31844,7 @@
         <v>159.1594020409682</v>
       </c>
       <c r="L12" t="n">
-        <v>214.0094575342405</v>
+        <v>164.8000357737344</v>
       </c>
       <c r="M12" t="n">
         <v>249.7389427684693</v>
@@ -31853,13 +31853,13 @@
         <v>256.3487894621337</v>
       </c>
       <c r="O12" t="n">
-        <v>234.5090605567103</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>188.2141957807447</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.8162054757406</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>61.19619999706514</v>
@@ -31990,13 +31990,13 @@
         <v>1.842157154716475</v>
       </c>
       <c r="H14" t="n">
-        <v>18.8659919607401</v>
+        <v>18.86599196074011</v>
       </c>
       <c r="I14" t="n">
-        <v>71.01976370720696</v>
+        <v>71.01976370720698</v>
       </c>
       <c r="J14" t="n">
-        <v>156.3507858101175</v>
+        <v>156.3507858101176</v>
       </c>
       <c r="K14" t="n">
         <v>234.329298169266</v>
@@ -32005,13 +32005,13 @@
         <v>290.7062151929204</v>
       </c>
       <c r="M14" t="n">
-        <v>323.4666774931094</v>
+        <v>323.4666774931095</v>
       </c>
       <c r="N14" t="n">
-        <v>328.7007065089476</v>
+        <v>328.7007065089477</v>
       </c>
       <c r="O14" t="n">
-        <v>310.3827563017357</v>
+        <v>310.3827563017358</v>
       </c>
       <c r="P14" t="n">
         <v>264.9045015446727</v>
@@ -32023,10 +32023,10 @@
         <v>115.7174043699589</v>
       </c>
       <c r="S14" t="n">
-        <v>41.97815616310171</v>
+        <v>41.97815616310172</v>
       </c>
       <c r="T14" t="n">
-        <v>8.064042944771373</v>
+        <v>8.064042944771375</v>
       </c>
       <c r="U14" t="n">
         <v>0.147372572377318</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9856409719787259</v>
+        <v>0.9856409719787261</v>
       </c>
       <c r="H15" t="n">
-        <v>9.519216755689275</v>
+        <v>9.519216755689278</v>
       </c>
       <c r="I15" t="n">
-        <v>33.93544574575877</v>
+        <v>33.93544574575878</v>
       </c>
       <c r="J15" t="n">
-        <v>93.12145691839359</v>
+        <v>93.1214569183936</v>
       </c>
       <c r="K15" t="n">
         <v>159.1594020409682</v>
@@ -32084,31 +32084,31 @@
         <v>214.0094575342405</v>
       </c>
       <c r="M15" t="n">
-        <v>249.7389427684692</v>
+        <v>249.7389427684693</v>
       </c>
       <c r="N15" t="n">
-        <v>256.3487894621337</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>234.5090605567103</v>
       </c>
       <c r="P15" t="n">
-        <v>188.2141957807446</v>
+        <v>188.2141957807447</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.8162054757405</v>
+        <v>125.8162054757406</v>
       </c>
       <c r="R15" t="n">
-        <v>61.19619999706513</v>
+        <v>61.19619999706514</v>
       </c>
       <c r="S15" t="n">
-        <v>18.3078487558329</v>
+        <v>18.30784875583291</v>
       </c>
       <c r="T15" t="n">
-        <v>3.972824794949337</v>
+        <v>3.972824794949338</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0648448007880741</v>
+        <v>0.06484480078807411</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8263282810808127</v>
+        <v>0.8263282810808129</v>
       </c>
       <c r="H16" t="n">
-        <v>7.346809626336685</v>
+        <v>7.346809626336687</v>
       </c>
       <c r="I16" t="n">
         <v>24.84994503468481</v>
       </c>
       <c r="J16" t="n">
-        <v>58.42140947241345</v>
+        <v>58.42140947241347</v>
       </c>
       <c r="K16" t="n">
-        <v>96.0043221110253</v>
+        <v>96.00432211102533</v>
       </c>
       <c r="L16" t="n">
         <v>122.8524791708692</v>
       </c>
       <c r="M16" t="n">
-        <v>129.5307140970586</v>
+        <v>129.5307140970587</v>
       </c>
       <c r="N16" t="n">
         <v>126.4507632312121</v>
       </c>
       <c r="O16" t="n">
-        <v>116.7977464931316</v>
+        <v>116.7977464931317</v>
       </c>
       <c r="P16" t="n">
-        <v>99.94064955908297</v>
+        <v>99.940649559083</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.19372542759423</v>
+        <v>69.19372542759426</v>
       </c>
       <c r="R16" t="n">
-        <v>37.15472434750635</v>
+        <v>37.15472434750636</v>
       </c>
       <c r="S16" t="n">
-        <v>14.40064831665379</v>
+        <v>14.4006483166538</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530675382799835</v>
+        <v>3.530675382799836</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04507245169531711</v>
+        <v>0.04507245169531712</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>93.1214569183936</v>
       </c>
       <c r="K18" t="n">
-        <v>159.1594020409682</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>214.0094575342405</v>
@@ -32330,7 +32330,7 @@
         <v>234.5090605567103</v>
       </c>
       <c r="P18" t="n">
-        <v>188.2141957807447</v>
+        <v>133.7506291543237</v>
       </c>
       <c r="Q18" t="n">
         <v>125.8162054757406</v>
@@ -32464,10 +32464,10 @@
         <v>1.842157154716475</v>
       </c>
       <c r="H20" t="n">
-        <v>18.86599196074011</v>
+        <v>18.8659919607401</v>
       </c>
       <c r="I20" t="n">
-        <v>71.01976370720698</v>
+        <v>71.01976370720696</v>
       </c>
       <c r="J20" t="n">
         <v>156.3507858101176</v>
@@ -32479,13 +32479,13 @@
         <v>290.7062151929204</v>
       </c>
       <c r="M20" t="n">
-        <v>323.4666774931095</v>
+        <v>323.4666774931094</v>
       </c>
       <c r="N20" t="n">
         <v>328.7007065089477</v>
       </c>
       <c r="O20" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017357</v>
       </c>
       <c r="P20" t="n">
         <v>264.9045015446727</v>
@@ -32500,7 +32500,7 @@
         <v>41.97815616310172</v>
       </c>
       <c r="T20" t="n">
-        <v>8.064042944771375</v>
+        <v>8.064042944771373</v>
       </c>
       <c r="U20" t="n">
         <v>0.147372572377318</v>
@@ -32540,19 +32540,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9856409719787261</v>
+        <v>0.985640971978726</v>
       </c>
       <c r="H21" t="n">
-        <v>9.519216755689278</v>
+        <v>9.519216755689277</v>
       </c>
       <c r="I21" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575877</v>
       </c>
       <c r="J21" t="n">
         <v>93.1214569183936</v>
       </c>
       <c r="K21" t="n">
-        <v>159.1594020409682</v>
+        <v>5.973503710145167</v>
       </c>
       <c r="L21" t="n">
         <v>214.0094575342405</v>
@@ -32561,28 +32561,28 @@
         <v>249.7389427684693</v>
       </c>
       <c r="N21" t="n">
-        <v>256.3487894621337</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>234.5090605567103</v>
       </c>
       <c r="P21" t="n">
-        <v>188.2141957807447</v>
+        <v>188.2141957807446</v>
       </c>
       <c r="Q21" t="n">
-        <v>125.8162054757406</v>
+        <v>125.8162054757405</v>
       </c>
       <c r="R21" t="n">
         <v>61.19619999706514</v>
       </c>
       <c r="S21" t="n">
-        <v>18.30784875583291</v>
+        <v>18.3078487558329</v>
       </c>
       <c r="T21" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949337</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06484480078807411</v>
+        <v>0.0648448007880741</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,25 +32619,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8263282810808129</v>
+        <v>0.8263282810808128</v>
       </c>
       <c r="H22" t="n">
-        <v>7.346809626336687</v>
+        <v>7.346809626336686</v>
       </c>
       <c r="I22" t="n">
         <v>24.84994503468481</v>
       </c>
       <c r="J22" t="n">
-        <v>58.42140947241347</v>
+        <v>58.42140947241346</v>
       </c>
       <c r="K22" t="n">
-        <v>96.00432211102533</v>
+        <v>96.00432211102532</v>
       </c>
       <c r="L22" t="n">
         <v>122.8524791708692</v>
       </c>
       <c r="M22" t="n">
-        <v>129.5307140970587</v>
+        <v>129.5307140970586</v>
       </c>
       <c r="N22" t="n">
         <v>126.4507632312121</v>
@@ -32646,22 +32646,22 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P22" t="n">
-        <v>99.940649559083</v>
+        <v>99.94064955908298</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.19372542759426</v>
+        <v>69.19372542759425</v>
       </c>
       <c r="R22" t="n">
-        <v>37.15472434750636</v>
+        <v>37.15472434750635</v>
       </c>
       <c r="S22" t="n">
         <v>14.4006483166538</v>
       </c>
       <c r="T22" t="n">
-        <v>3.530675382799836</v>
+        <v>3.530675382799835</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04507245169531712</v>
+        <v>0.04507245169531711</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,10 +32701,10 @@
         <v>1.842157154716475</v>
       </c>
       <c r="H23" t="n">
-        <v>18.86599196074011</v>
+        <v>18.8659919607401</v>
       </c>
       <c r="I23" t="n">
-        <v>71.01976370720698</v>
+        <v>71.01976370720696</v>
       </c>
       <c r="J23" t="n">
         <v>156.3507858101176</v>
@@ -32716,13 +32716,13 @@
         <v>290.7062151929204</v>
       </c>
       <c r="M23" t="n">
-        <v>323.4666774931095</v>
+        <v>323.4666774931094</v>
       </c>
       <c r="N23" t="n">
         <v>328.7007065089477</v>
       </c>
       <c r="O23" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017357</v>
       </c>
       <c r="P23" t="n">
         <v>264.9045015446727</v>
@@ -32737,7 +32737,7 @@
         <v>41.97815616310172</v>
       </c>
       <c r="T23" t="n">
-        <v>8.064042944771375</v>
+        <v>8.064042944771373</v>
       </c>
       <c r="U23" t="n">
         <v>0.147372572377318</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9856409719787261</v>
+        <v>0.985640971978726</v>
       </c>
       <c r="H24" t="n">
-        <v>9.519216755689278</v>
+        <v>9.519216755689277</v>
       </c>
       <c r="I24" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575877</v>
       </c>
       <c r="J24" t="n">
         <v>93.1214569183936</v>
@@ -32801,25 +32801,25 @@
         <v>256.3487894621337</v>
       </c>
       <c r="O24" t="n">
-        <v>234.5090605567103</v>
+        <v>20.88609188932162</v>
       </c>
       <c r="P24" t="n">
-        <v>188.2141957807447</v>
+        <v>188.2141957807446</v>
       </c>
       <c r="Q24" t="n">
-        <v>125.8162054757406</v>
+        <v>125.8162054757405</v>
       </c>
       <c r="R24" t="n">
         <v>61.19619999706514</v>
       </c>
       <c r="S24" t="n">
-        <v>18.30784875583291</v>
+        <v>18.3078487558329</v>
       </c>
       <c r="T24" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949337</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06484480078807411</v>
+        <v>0.0648448007880741</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,25 +32856,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8263282810808129</v>
+        <v>0.8263282810808128</v>
       </c>
       <c r="H25" t="n">
-        <v>7.346809626336687</v>
+        <v>7.346809626336686</v>
       </c>
       <c r="I25" t="n">
         <v>24.84994503468481</v>
       </c>
       <c r="J25" t="n">
-        <v>58.42140947241347</v>
+        <v>58.42140947241346</v>
       </c>
       <c r="K25" t="n">
-        <v>96.00432211102533</v>
+        <v>96.00432211102532</v>
       </c>
       <c r="L25" t="n">
         <v>122.8524791708692</v>
       </c>
       <c r="M25" t="n">
-        <v>129.5307140970587</v>
+        <v>129.5307140970586</v>
       </c>
       <c r="N25" t="n">
         <v>126.4507632312121</v>
@@ -32883,22 +32883,22 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P25" t="n">
-        <v>99.940649559083</v>
+        <v>99.94064955908298</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.19372542759426</v>
+        <v>69.19372542759425</v>
       </c>
       <c r="R25" t="n">
-        <v>37.15472434750636</v>
+        <v>37.15472434750635</v>
       </c>
       <c r="S25" t="n">
         <v>14.4006483166538</v>
       </c>
       <c r="T25" t="n">
-        <v>3.530675382799836</v>
+        <v>3.530675382799835</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04507245169531712</v>
+        <v>0.04507245169531711</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,10 +32938,10 @@
         <v>1.842157154716475</v>
       </c>
       <c r="H26" t="n">
-        <v>18.86599196074011</v>
+        <v>18.8659919607401</v>
       </c>
       <c r="I26" t="n">
-        <v>71.01976370720698</v>
+        <v>71.01976370720696</v>
       </c>
       <c r="J26" t="n">
         <v>156.3507858101176</v>
@@ -32953,13 +32953,13 @@
         <v>290.7062151929204</v>
       </c>
       <c r="M26" t="n">
-        <v>323.4666774931095</v>
+        <v>323.4666774931094</v>
       </c>
       <c r="N26" t="n">
         <v>328.7007065089477</v>
       </c>
       <c r="O26" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017357</v>
       </c>
       <c r="P26" t="n">
         <v>264.9045015446727</v>
@@ -32974,7 +32974,7 @@
         <v>41.97815616310172</v>
       </c>
       <c r="T26" t="n">
-        <v>8.064042944771375</v>
+        <v>8.064042944771373</v>
       </c>
       <c r="U26" t="n">
         <v>0.147372572377318</v>
@@ -33014,19 +33014,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9856409719787261</v>
+        <v>0.985640971978726</v>
       </c>
       <c r="H27" t="n">
-        <v>9.519216755689278</v>
+        <v>9.519216755689277</v>
       </c>
       <c r="I27" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575877</v>
       </c>
       <c r="J27" t="n">
         <v>93.1214569183936</v>
       </c>
       <c r="K27" t="n">
-        <v>159.1594020409682</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>214.0094575342405</v>
@@ -33041,22 +33041,22 @@
         <v>234.5090605567103</v>
       </c>
       <c r="P27" t="n">
-        <v>188.2141957807447</v>
+        <v>188.2141957807446</v>
       </c>
       <c r="Q27" t="n">
-        <v>125.8162054757406</v>
+        <v>125.8162054757405</v>
       </c>
       <c r="R27" t="n">
         <v>61.19619999706514</v>
       </c>
       <c r="S27" t="n">
-        <v>18.30784875583291</v>
+        <v>18.3078487558329</v>
       </c>
       <c r="T27" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949337</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06484480078807411</v>
+        <v>0.0648448007880741</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,25 +33093,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8263282810808129</v>
+        <v>0.8263282810808128</v>
       </c>
       <c r="H28" t="n">
-        <v>7.346809626336687</v>
+        <v>7.346809626336686</v>
       </c>
       <c r="I28" t="n">
         <v>24.84994503468481</v>
       </c>
       <c r="J28" t="n">
-        <v>58.42140947241347</v>
+        <v>58.42140947241346</v>
       </c>
       <c r="K28" t="n">
-        <v>96.00432211102533</v>
+        <v>96.00432211102532</v>
       </c>
       <c r="L28" t="n">
         <v>122.8524791708692</v>
       </c>
       <c r="M28" t="n">
-        <v>129.5307140970587</v>
+        <v>129.5307140970586</v>
       </c>
       <c r="N28" t="n">
         <v>126.4507632312121</v>
@@ -33120,22 +33120,22 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P28" t="n">
-        <v>99.940649559083</v>
+        <v>99.94064955908298</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.19372542759426</v>
+        <v>69.19372542759425</v>
       </c>
       <c r="R28" t="n">
-        <v>37.15472434750636</v>
+        <v>37.15472434750635</v>
       </c>
       <c r="S28" t="n">
         <v>14.4006483166538</v>
       </c>
       <c r="T28" t="n">
-        <v>3.530675382799836</v>
+        <v>3.530675382799835</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04507245169531712</v>
+        <v>0.04507245169531711</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,10 +33175,10 @@
         <v>1.842157154716475</v>
       </c>
       <c r="H29" t="n">
-        <v>18.86599196074011</v>
+        <v>18.8659919607401</v>
       </c>
       <c r="I29" t="n">
-        <v>71.01976370720698</v>
+        <v>71.01976370720696</v>
       </c>
       <c r="J29" t="n">
         <v>156.3507858101176</v>
@@ -33190,13 +33190,13 @@
         <v>290.7062151929204</v>
       </c>
       <c r="M29" t="n">
-        <v>323.4666774931095</v>
+        <v>323.4666774931094</v>
       </c>
       <c r="N29" t="n">
         <v>328.7007065089477</v>
       </c>
       <c r="O29" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017357</v>
       </c>
       <c r="P29" t="n">
         <v>264.9045015446727</v>
@@ -33211,7 +33211,7 @@
         <v>41.97815616310172</v>
       </c>
       <c r="T29" t="n">
-        <v>8.064042944771375</v>
+        <v>8.064042944771373</v>
       </c>
       <c r="U29" t="n">
         <v>0.147372572377318</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9856409719787261</v>
+        <v>0.985640971978726</v>
       </c>
       <c r="H30" t="n">
-        <v>9.519216755689278</v>
+        <v>9.519216755689277</v>
       </c>
       <c r="I30" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575877</v>
       </c>
       <c r="J30" t="n">
         <v>93.1214569183936</v>
@@ -33269,7 +33269,7 @@
         <v>214.0094575342405</v>
       </c>
       <c r="M30" t="n">
-        <v>249.7389427684693</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>256.3487894621337</v>
@@ -33278,22 +33278,22 @@
         <v>234.5090605567103</v>
       </c>
       <c r="P30" t="n">
-        <v>188.2141957807447</v>
+        <v>188.2141957807446</v>
       </c>
       <c r="Q30" t="n">
-        <v>125.8162054757406</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>61.19619999706514</v>
       </c>
       <c r="S30" t="n">
-        <v>18.30784875583291</v>
+        <v>18.3078487558329</v>
       </c>
       <c r="T30" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949337</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06484480078807411</v>
+        <v>0.0648448007880741</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,25 +33330,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8263282810808129</v>
+        <v>0.8263282810808128</v>
       </c>
       <c r="H31" t="n">
-        <v>7.346809626336687</v>
+        <v>7.346809626336686</v>
       </c>
       <c r="I31" t="n">
         <v>24.84994503468481</v>
       </c>
       <c r="J31" t="n">
-        <v>58.42140947241347</v>
+        <v>58.42140947241346</v>
       </c>
       <c r="K31" t="n">
-        <v>96.00432211102533</v>
+        <v>96.00432211102532</v>
       </c>
       <c r="L31" t="n">
         <v>122.8524791708692</v>
       </c>
       <c r="M31" t="n">
-        <v>129.5307140970587</v>
+        <v>129.5307140970586</v>
       </c>
       <c r="N31" t="n">
         <v>126.4507632312121</v>
@@ -33357,22 +33357,22 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P31" t="n">
-        <v>99.940649559083</v>
+        <v>99.94064955908298</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.19372542759426</v>
+        <v>69.19372542759425</v>
       </c>
       <c r="R31" t="n">
-        <v>37.15472434750636</v>
+        <v>37.15472434750635</v>
       </c>
       <c r="S31" t="n">
         <v>14.4006483166538</v>
       </c>
       <c r="T31" t="n">
-        <v>3.530675382799836</v>
+        <v>3.530675382799835</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04507245169531712</v>
+        <v>0.04507245169531711</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,10 +33412,10 @@
         <v>1.842157154716475</v>
       </c>
       <c r="H32" t="n">
-        <v>18.86599196074011</v>
+        <v>18.8659919607401</v>
       </c>
       <c r="I32" t="n">
-        <v>71.01976370720698</v>
+        <v>71.01976370720696</v>
       </c>
       <c r="J32" t="n">
         <v>156.3507858101176</v>
@@ -33427,13 +33427,13 @@
         <v>290.7062151929204</v>
       </c>
       <c r="M32" t="n">
-        <v>323.4666774931095</v>
+        <v>323.4666774931094</v>
       </c>
       <c r="N32" t="n">
         <v>328.7007065089477</v>
       </c>
       <c r="O32" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017357</v>
       </c>
       <c r="P32" t="n">
         <v>264.9045015446727</v>
@@ -33448,7 +33448,7 @@
         <v>41.97815616310172</v>
       </c>
       <c r="T32" t="n">
-        <v>8.064042944771375</v>
+        <v>8.064042944771373</v>
       </c>
       <c r="U32" t="n">
         <v>0.147372572377318</v>
@@ -33488,19 +33488,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9856409719787261</v>
+        <v>0.985640971978726</v>
       </c>
       <c r="H33" t="n">
-        <v>9.519216755689278</v>
+        <v>9.519216755689277</v>
       </c>
       <c r="I33" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575877</v>
       </c>
       <c r="J33" t="n">
         <v>93.1214569183936</v>
       </c>
       <c r="K33" t="n">
-        <v>159.1594020409682</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>214.0094575342405</v>
@@ -33509,28 +33509,28 @@
         <v>249.7389427684693</v>
       </c>
       <c r="N33" t="n">
-        <v>256.3487894621337</v>
+        <v>201.8852228357132</v>
       </c>
       <c r="O33" t="n">
         <v>234.5090605567103</v>
       </c>
       <c r="P33" t="n">
-        <v>188.2141957807447</v>
+        <v>188.2141957807446</v>
       </c>
       <c r="Q33" t="n">
-        <v>125.8162054757406</v>
+        <v>125.8162054757405</v>
       </c>
       <c r="R33" t="n">
         <v>61.19619999706514</v>
       </c>
       <c r="S33" t="n">
-        <v>18.30784875583291</v>
+        <v>18.3078487558329</v>
       </c>
       <c r="T33" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949337</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06484480078807411</v>
+        <v>0.0648448007880741</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,25 +33567,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8263282810808129</v>
+        <v>0.8263282810808128</v>
       </c>
       <c r="H34" t="n">
-        <v>7.346809626336687</v>
+        <v>7.346809626336686</v>
       </c>
       <c r="I34" t="n">
         <v>24.84994503468481</v>
       </c>
       <c r="J34" t="n">
-        <v>58.42140947241347</v>
+        <v>58.42140947241346</v>
       </c>
       <c r="K34" t="n">
-        <v>96.00432211102533</v>
+        <v>96.00432211102532</v>
       </c>
       <c r="L34" t="n">
         <v>122.8524791708692</v>
       </c>
       <c r="M34" t="n">
-        <v>129.5307140970587</v>
+        <v>129.5307140970586</v>
       </c>
       <c r="N34" t="n">
         <v>126.4507632312121</v>
@@ -33594,22 +33594,22 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P34" t="n">
-        <v>99.940649559083</v>
+        <v>99.94064955908298</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.19372542759426</v>
+        <v>69.19372542759425</v>
       </c>
       <c r="R34" t="n">
-        <v>37.15472434750636</v>
+        <v>37.15472434750635</v>
       </c>
       <c r="S34" t="n">
         <v>14.4006483166538</v>
       </c>
       <c r="T34" t="n">
-        <v>3.530675382799836</v>
+        <v>3.530675382799835</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04507245169531712</v>
+        <v>0.04507245169531711</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,10 +33649,10 @@
         <v>1.842157154716475</v>
       </c>
       <c r="H35" t="n">
-        <v>18.86599196074011</v>
+        <v>18.8659919607401</v>
       </c>
       <c r="I35" t="n">
-        <v>71.01976370720698</v>
+        <v>71.01976370720696</v>
       </c>
       <c r="J35" t="n">
         <v>156.3507858101176</v>
@@ -33664,13 +33664,13 @@
         <v>290.7062151929204</v>
       </c>
       <c r="M35" t="n">
-        <v>323.4666774931095</v>
+        <v>323.4666774931094</v>
       </c>
       <c r="N35" t="n">
         <v>328.7007065089477</v>
       </c>
       <c r="O35" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017357</v>
       </c>
       <c r="P35" t="n">
         <v>264.9045015446727</v>
@@ -33685,7 +33685,7 @@
         <v>41.97815616310172</v>
       </c>
       <c r="T35" t="n">
-        <v>8.064042944771375</v>
+        <v>8.064042944771373</v>
       </c>
       <c r="U35" t="n">
         <v>0.147372572377318</v>
@@ -33725,19 +33725,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9856409719787261</v>
+        <v>0.985640971978726</v>
       </c>
       <c r="H36" t="n">
-        <v>9.519216755689278</v>
+        <v>9.519216755689277</v>
       </c>
       <c r="I36" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575877</v>
       </c>
       <c r="J36" t="n">
         <v>93.1214569183936</v>
       </c>
       <c r="K36" t="n">
-        <v>159.1594020409682</v>
+        <v>37.91129896571519</v>
       </c>
       <c r="L36" t="n">
         <v>214.0094575342405</v>
@@ -33752,22 +33752,22 @@
         <v>234.5090605567103</v>
       </c>
       <c r="P36" t="n">
-        <v>188.2141957807447</v>
+        <v>188.2141957807446</v>
       </c>
       <c r="Q36" t="n">
-        <v>125.8162054757406</v>
+        <v>125.8162054757405</v>
       </c>
       <c r="R36" t="n">
         <v>61.19619999706514</v>
       </c>
       <c r="S36" t="n">
-        <v>18.30784875583291</v>
+        <v>18.3078487558329</v>
       </c>
       <c r="T36" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949337</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06484480078807411</v>
+        <v>0.0648448007880741</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,25 +33804,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8263282810808129</v>
+        <v>0.8263282810808128</v>
       </c>
       <c r="H37" t="n">
-        <v>7.346809626336687</v>
+        <v>7.346809626336686</v>
       </c>
       <c r="I37" t="n">
         <v>24.84994503468481</v>
       </c>
       <c r="J37" t="n">
-        <v>58.42140947241347</v>
+        <v>58.42140947241346</v>
       </c>
       <c r="K37" t="n">
-        <v>96.00432211102533</v>
+        <v>96.00432211102532</v>
       </c>
       <c r="L37" t="n">
         <v>122.8524791708692</v>
       </c>
       <c r="M37" t="n">
-        <v>129.5307140970587</v>
+        <v>129.5307140970586</v>
       </c>
       <c r="N37" t="n">
         <v>126.4507632312121</v>
@@ -33831,22 +33831,22 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P37" t="n">
-        <v>99.940649559083</v>
+        <v>99.94064955908298</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.19372542759426</v>
+        <v>69.19372542759425</v>
       </c>
       <c r="R37" t="n">
-        <v>37.15472434750636</v>
+        <v>37.15472434750635</v>
       </c>
       <c r="S37" t="n">
         <v>14.4006483166538</v>
       </c>
       <c r="T37" t="n">
-        <v>3.530675382799836</v>
+        <v>3.530675382799835</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04507245169531712</v>
+        <v>0.04507245169531711</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,34 +33883,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.842157154716475</v>
+        <v>1.842157154716476</v>
       </c>
       <c r="H38" t="n">
         <v>18.86599196074011</v>
       </c>
       <c r="I38" t="n">
-        <v>71.01976370720698</v>
+        <v>71.01976370720699</v>
       </c>
       <c r="J38" t="n">
         <v>156.3507858101176</v>
       </c>
       <c r="K38" t="n">
-        <v>234.329298169266</v>
+        <v>234.3292981692661</v>
       </c>
       <c r="L38" t="n">
-        <v>290.7062151929204</v>
+        <v>290.7062151929205</v>
       </c>
       <c r="M38" t="n">
-        <v>323.4666774931095</v>
+        <v>323.4666774931096</v>
       </c>
       <c r="N38" t="n">
-        <v>328.7007065089477</v>
+        <v>328.7007065089478</v>
       </c>
       <c r="O38" t="n">
         <v>310.3827563017358</v>
       </c>
       <c r="P38" t="n">
-        <v>264.9045015446727</v>
+        <v>264.9045015446728</v>
       </c>
       <c r="Q38" t="n">
         <v>198.9322484413889</v>
@@ -33919,10 +33919,10 @@
         <v>115.7174043699589</v>
       </c>
       <c r="S38" t="n">
-        <v>41.97815616310172</v>
+        <v>41.97815616310173</v>
       </c>
       <c r="T38" t="n">
-        <v>8.064042944771375</v>
+        <v>8.064042944771376</v>
       </c>
       <c r="U38" t="n">
         <v>0.147372572377318</v>
@@ -33962,40 +33962,40 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9856409719787261</v>
+        <v>0.9856409719787264</v>
       </c>
       <c r="H39" t="n">
-        <v>9.519216755689278</v>
+        <v>9.51921675568928</v>
       </c>
       <c r="I39" t="n">
         <v>33.93544574575878</v>
       </c>
       <c r="J39" t="n">
-        <v>93.1214569183936</v>
+        <v>93.12145691839363</v>
       </c>
       <c r="K39" t="n">
-        <v>159.1594020409682</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>214.0094575342405</v>
+        <v>214.0094575342406</v>
       </c>
       <c r="M39" t="n">
-        <v>249.7389427684693</v>
+        <v>249.7389427684694</v>
       </c>
       <c r="N39" t="n">
-        <v>256.3487894621337</v>
+        <v>256.3487894621338</v>
       </c>
       <c r="O39" t="n">
-        <v>234.5090605567103</v>
+        <v>234.5090605567104</v>
       </c>
       <c r="P39" t="n">
         <v>188.2141957807447</v>
       </c>
       <c r="Q39" t="n">
-        <v>125.8162054757406</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>61.19619999706514</v>
+        <v>61.19619999706516</v>
       </c>
       <c r="S39" t="n">
         <v>18.30784875583291</v>
@@ -34004,7 +34004,7 @@
         <v>3.972824794949338</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06484480078807411</v>
+        <v>0.06484480078807413</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8263282810808129</v>
+        <v>0.826328281080813</v>
       </c>
       <c r="H40" t="n">
-        <v>7.346809626336687</v>
+        <v>7.346809626336689</v>
       </c>
       <c r="I40" t="n">
-        <v>24.84994503468481</v>
+        <v>24.84994503468482</v>
       </c>
       <c r="J40" t="n">
-        <v>58.42140947241347</v>
+        <v>58.42140947241348</v>
       </c>
       <c r="K40" t="n">
-        <v>96.00432211102533</v>
+        <v>96.00432211102535</v>
       </c>
       <c r="L40" t="n">
-        <v>122.8524791708692</v>
+        <v>122.8524791708693</v>
       </c>
       <c r="M40" t="n">
         <v>129.5307140970587</v>
       </c>
       <c r="N40" t="n">
-        <v>126.4507632312121</v>
+        <v>126.4507632312122</v>
       </c>
       <c r="O40" t="n">
         <v>116.7977464931317</v>
       </c>
       <c r="P40" t="n">
-        <v>99.940649559083</v>
+        <v>99.94064955908303</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.19372542759426</v>
+        <v>69.19372542759427</v>
       </c>
       <c r="R40" t="n">
-        <v>37.15472434750636</v>
+        <v>37.15472434750637</v>
       </c>
       <c r="S40" t="n">
         <v>14.4006483166538</v>
       </c>
       <c r="T40" t="n">
-        <v>3.530675382799836</v>
+        <v>3.530675382799837</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04507245169531712</v>
+        <v>0.04507245169531713</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34132,7 +34132,7 @@
         <v>156.3507858101176</v>
       </c>
       <c r="K41" t="n">
-        <v>234.3292981692661</v>
+        <v>234.3292981692662</v>
       </c>
       <c r="L41" t="n">
         <v>290.7062151929205</v>
@@ -34223,7 +34223,7 @@
         <v>256.3487894621338</v>
       </c>
       <c r="O42" t="n">
-        <v>234.5090605567104</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>188.2141957807447</v>
@@ -34381,7 +34381,7 @@
         <v>328.7007065089478</v>
       </c>
       <c r="O44" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017359</v>
       </c>
       <c r="P44" t="n">
         <v>264.9045015446728</v>
@@ -34445,7 +34445,7 @@
         <v>33.93544574575878</v>
       </c>
       <c r="J45" t="n">
-        <v>93.12145691839363</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>159.1594020409683</v>
@@ -34454,10 +34454,10 @@
         <v>214.0094575342406</v>
       </c>
       <c r="M45" t="n">
-        <v>249.7389427684694</v>
+        <v>188.9279100297812</v>
       </c>
       <c r="N45" t="n">
-        <v>256.3487894621338</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>234.5090605567104</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047525</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>92.37486559213575</v>
       </c>
       <c r="K12" t="n">
-        <v>21.31796306660925</v>
+        <v>285.7832000791878</v>
       </c>
       <c r="L12" t="n">
-        <v>446.2954230578255</v>
+        <v>397.0860012973193</v>
       </c>
       <c r="M12" t="n">
         <v>573.309972596451</v>
@@ -35501,13 +35501,13 @@
         <v>604.3494517223539</v>
       </c>
       <c r="O12" t="n">
-        <v>485.7751353889954</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>372.7025570063516</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.84226834518944</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>144.401496455505</v>
+        <v>144.4014964555051</v>
       </c>
       <c r="K14" t="n">
-        <v>338.3848596954501</v>
+        <v>338.3848596954502</v>
       </c>
       <c r="L14" t="n">
         <v>472.6010147733836</v>
       </c>
       <c r="M14" t="n">
-        <v>542.6339777586692</v>
+        <v>542.6339777586693</v>
       </c>
       <c r="N14" t="n">
-        <v>536.6345673243409</v>
+        <v>536.634567324341</v>
       </c>
       <c r="O14" t="n">
         <v>461.0847261427944</v>
@@ -35665,7 +35665,7 @@
         <v>355.4702139608858</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.941549226844</v>
+        <v>188.9415492268441</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>92.37486559213573</v>
+        <v>92.37486559213575</v>
       </c>
       <c r="K15" t="n">
         <v>285.7832000791878</v>
@@ -35732,16 +35732,16 @@
         <v>446.2954230578255</v>
       </c>
       <c r="M15" t="n">
-        <v>573.3099725964508</v>
+        <v>573.309972596451</v>
       </c>
       <c r="N15" t="n">
-        <v>194.8147639293971</v>
+        <v>194.8147639293967</v>
       </c>
       <c r="O15" t="n">
         <v>485.7751353889954</v>
       </c>
       <c r="P15" t="n">
-        <v>372.7025570063515</v>
+        <v>372.7025570063516</v>
       </c>
       <c r="Q15" t="n">
         <v>195.9117191255681</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>73.73483028514245</v>
+        <v>73.73483028514248</v>
       </c>
       <c r="L16" t="n">
-        <v>150.4425044311853</v>
+        <v>150.4425044311854</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1145910588992</v>
+        <v>169.1145910588993</v>
       </c>
       <c r="N16" t="n">
         <v>170.5829356104407</v>
       </c>
       <c r="O16" t="n">
-        <v>141.3828744071713</v>
+        <v>141.3828744071714</v>
       </c>
       <c r="P16" t="n">
-        <v>97.21920882397646</v>
+        <v>97.21920882397649</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>92.37486559213575</v>
       </c>
       <c r="K18" t="n">
-        <v>285.7832000791878</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>446.2954230578255</v>
@@ -35978,10 +35978,10 @@
         <v>485.7751353889954</v>
       </c>
       <c r="P18" t="n">
-        <v>54.23978836641442</v>
+        <v>318.2389903799306</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.8397999725478</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>472.6010147733836</v>
       </c>
       <c r="M20" t="n">
-        <v>542.6339777586693</v>
+        <v>542.6339777586692</v>
       </c>
       <c r="N20" t="n">
-        <v>536.634567324341</v>
+        <v>536.6345673243409</v>
       </c>
       <c r="O20" t="n">
         <v>461.0847261427944</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>92.37486559213575</v>
       </c>
       <c r="K21" t="n">
-        <v>164.5350970039342</v>
+        <v>132.5973017483648</v>
       </c>
       <c r="L21" t="n">
         <v>446.2954230578255</v>
       </c>
       <c r="M21" t="n">
-        <v>573.309972596451</v>
+        <v>573.3099725964508</v>
       </c>
       <c r="N21" t="n">
-        <v>604.3494517223539</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>485.7751353889954</v>
       </c>
       <c r="P21" t="n">
-        <v>372.7025570063516</v>
+        <v>372.7025570063515</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>195.9117191255681</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>73.73483028514248</v>
+        <v>73.73483028514246</v>
       </c>
       <c r="L22" t="n">
-        <v>150.4425044311854</v>
+        <v>150.4425044311853</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1145910588993</v>
+        <v>169.1145910588992</v>
       </c>
       <c r="N22" t="n">
         <v>170.5829356104407</v>
       </c>
       <c r="O22" t="n">
-        <v>141.3828744071714</v>
+        <v>141.3828744071713</v>
       </c>
       <c r="P22" t="n">
-        <v>97.21920882397649</v>
+        <v>97.21920882397647</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>472.6010147733836</v>
       </c>
       <c r="M23" t="n">
-        <v>542.6339777586693</v>
+        <v>542.6339777586692</v>
       </c>
       <c r="N23" t="n">
-        <v>536.634567324341</v>
+        <v>536.6345673243409</v>
       </c>
       <c r="O23" t="n">
         <v>461.0847261427944</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>92.37486559213575</v>
       </c>
       <c r="K24" t="n">
-        <v>164.5350970039342</v>
+        <v>285.7832000791878</v>
       </c>
       <c r="L24" t="n">
         <v>446.2954230578255</v>
       </c>
       <c r="M24" t="n">
-        <v>573.309972596451</v>
+        <v>573.3099725964508</v>
       </c>
       <c r="N24" t="n">
         <v>604.3494517223539</v>
       </c>
       <c r="O24" t="n">
-        <v>485.7751353889954</v>
+        <v>272.1521667216067</v>
       </c>
       <c r="P24" t="n">
-        <v>372.7025570063516</v>
+        <v>372.7025570063515</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>73.73483028514248</v>
+        <v>73.73483028514246</v>
       </c>
       <c r="L25" t="n">
-        <v>150.4425044311854</v>
+        <v>150.4425044311853</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1145910588993</v>
+        <v>169.1145910588992</v>
       </c>
       <c r="N25" t="n">
         <v>170.5829356104407</v>
       </c>
       <c r="O25" t="n">
-        <v>141.3828744071714</v>
+        <v>141.3828744071713</v>
       </c>
       <c r="P25" t="n">
-        <v>97.21920882397649</v>
+        <v>97.21920882397647</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>472.6010147733836</v>
       </c>
       <c r="M26" t="n">
-        <v>542.6339777586693</v>
+        <v>542.6339777586692</v>
       </c>
       <c r="N26" t="n">
-        <v>536.634567324341</v>
+        <v>536.6345673243409</v>
       </c>
       <c r="O26" t="n">
         <v>461.0847261427944</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>37.91129896571521</v>
       </c>
       <c r="K27" t="n">
-        <v>164.5350970039342</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>446.2954230578255</v>
       </c>
       <c r="M27" t="n">
-        <v>573.309972596451</v>
+        <v>573.3099725964508</v>
       </c>
       <c r="N27" t="n">
         <v>604.3494517223539</v>
@@ -36689,7 +36689,7 @@
         <v>485.7751353889954</v>
       </c>
       <c r="P27" t="n">
-        <v>372.7025570063516</v>
+        <v>372.7025570063515</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>73.73483028514248</v>
+        <v>73.73483028514246</v>
       </c>
       <c r="L28" t="n">
-        <v>150.4425044311854</v>
+        <v>150.4425044311853</v>
       </c>
       <c r="M28" t="n">
-        <v>169.1145910588993</v>
+        <v>169.1145910588992</v>
       </c>
       <c r="N28" t="n">
         <v>170.5829356104407</v>
       </c>
       <c r="O28" t="n">
-        <v>141.3828744071714</v>
+        <v>141.3828744071713</v>
       </c>
       <c r="P28" t="n">
-        <v>97.21920882397649</v>
+        <v>97.21920882397647</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>472.6010147733836</v>
       </c>
       <c r="M29" t="n">
-        <v>542.6339777586693</v>
+        <v>542.6339777586692</v>
       </c>
       <c r="N29" t="n">
-        <v>536.634567324341</v>
+        <v>536.6345673243409</v>
       </c>
       <c r="O29" t="n">
         <v>461.0847261427944</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>58.39532604338868</v>
       </c>
       <c r="K30" t="n">
-        <v>164.5350970039342</v>
+        <v>285.7832000791878</v>
       </c>
       <c r="L30" t="n">
         <v>446.2954230578255</v>
       </c>
       <c r="M30" t="n">
-        <v>573.309972596451</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
         <v>604.3494517223539</v>
@@ -36926,10 +36926,10 @@
         <v>485.7751353889954</v>
       </c>
       <c r="P30" t="n">
-        <v>372.7025570063516</v>
+        <v>372.7025570063515</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,22 +36990,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>73.73483028514248</v>
+        <v>73.73483028514246</v>
       </c>
       <c r="L31" t="n">
-        <v>150.4425044311854</v>
+        <v>150.4425044311853</v>
       </c>
       <c r="M31" t="n">
-        <v>169.1145910588993</v>
+        <v>169.1145910588992</v>
       </c>
       <c r="N31" t="n">
         <v>170.5829356104407</v>
       </c>
       <c r="O31" t="n">
-        <v>141.3828744071714</v>
+        <v>141.3828744071713</v>
       </c>
       <c r="P31" t="n">
-        <v>97.21920882397649</v>
+        <v>97.21920882397647</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>472.6010147733836</v>
       </c>
       <c r="M32" t="n">
-        <v>542.6339777586693</v>
+        <v>542.6339777586692</v>
       </c>
       <c r="N32" t="n">
-        <v>536.634567324341</v>
+        <v>536.6345673243409</v>
       </c>
       <c r="O32" t="n">
         <v>461.0847261427944</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>92.37486559213575</v>
       </c>
       <c r="K33" t="n">
-        <v>164.5350970039342</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>446.2954230578255</v>
       </c>
       <c r="M33" t="n">
-        <v>573.309972596451</v>
+        <v>573.3099725964508</v>
       </c>
       <c r="N33" t="n">
-        <v>604.3494517223539</v>
+        <v>549.8858850959334</v>
       </c>
       <c r="O33" t="n">
         <v>485.7751353889954</v>
       </c>
       <c r="P33" t="n">
-        <v>372.7025570063516</v>
+        <v>372.7025570063515</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>73.73483028514248</v>
+        <v>73.73483028514246</v>
       </c>
       <c r="L34" t="n">
-        <v>150.4425044311854</v>
+        <v>150.4425044311853</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1145910588993</v>
+        <v>169.1145910588992</v>
       </c>
       <c r="N34" t="n">
         <v>170.5829356104407</v>
       </c>
       <c r="O34" t="n">
-        <v>141.3828744071714</v>
+        <v>141.3828744071713</v>
       </c>
       <c r="P34" t="n">
-        <v>97.21920882397649</v>
+        <v>97.21920882397647</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>472.6010147733836</v>
       </c>
       <c r="M35" t="n">
-        <v>542.6339777586693</v>
+        <v>542.6339777586692</v>
       </c>
       <c r="N35" t="n">
-        <v>536.634567324341</v>
+        <v>536.6345673243409</v>
       </c>
       <c r="O35" t="n">
         <v>461.0847261427944</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>285.7832000791878</v>
+        <v>164.5350970039348</v>
       </c>
       <c r="L36" t="n">
         <v>446.2954230578255</v>
       </c>
       <c r="M36" t="n">
-        <v>573.309972596451</v>
+        <v>573.3099725964508</v>
       </c>
       <c r="N36" t="n">
         <v>604.3494517223539</v>
@@ -37400,7 +37400,7 @@
         <v>485.7751353889954</v>
       </c>
       <c r="P36" t="n">
-        <v>251.4544539310983</v>
+        <v>372.7025570063515</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>73.73483028514248</v>
+        <v>73.73483028514246</v>
       </c>
       <c r="L37" t="n">
-        <v>150.4425044311854</v>
+        <v>150.4425044311853</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1145910588993</v>
+        <v>169.1145910588992</v>
       </c>
       <c r="N37" t="n">
         <v>170.5829356104407</v>
       </c>
       <c r="O37" t="n">
-        <v>141.3828744071714</v>
+        <v>141.3828744071713</v>
       </c>
       <c r="P37" t="n">
-        <v>97.21920882397649</v>
+        <v>97.21920882397647</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,19 +37546,19 @@
         <v>338.3848596954502</v>
       </c>
       <c r="L38" t="n">
-        <v>472.6010147733836</v>
+        <v>472.6010147733837</v>
       </c>
       <c r="M38" t="n">
-        <v>542.6339777586693</v>
+        <v>542.6339777586694</v>
       </c>
       <c r="N38" t="n">
-        <v>536.634567324341</v>
+        <v>536.6345673243411</v>
       </c>
       <c r="O38" t="n">
-        <v>461.0847261427944</v>
+        <v>461.0847261427945</v>
       </c>
       <c r="P38" t="n">
-        <v>355.4702139608858</v>
+        <v>355.4702139608859</v>
       </c>
       <c r="Q38" t="n">
         <v>188.9415492268441</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>92.37486559213575</v>
+        <v>92.37486559213578</v>
       </c>
       <c r="K39" t="n">
-        <v>285.7832000791878</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>446.2954230578255</v>
+        <v>446.2954230578256</v>
       </c>
       <c r="M39" t="n">
-        <v>573.309972596451</v>
+        <v>448.7508923202021</v>
       </c>
       <c r="N39" t="n">
-        <v>194.8147639293967</v>
+        <v>604.3494517223539</v>
       </c>
       <c r="O39" t="n">
-        <v>485.7751353889954</v>
+        <v>485.7751353889955</v>
       </c>
       <c r="P39" t="n">
         <v>372.7025570063516</v>
       </c>
       <c r="Q39" t="n">
-        <v>195.9117191255681</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>73.73483028514248</v>
+        <v>73.73483028514249</v>
       </c>
       <c r="L40" t="n">
         <v>150.4425044311854</v>
@@ -37710,13 +37710,13 @@
         <v>169.1145910588993</v>
       </c>
       <c r="N40" t="n">
-        <v>170.5829356104407</v>
+        <v>170.5829356104408</v>
       </c>
       <c r="O40" t="n">
         <v>141.3828744071714</v>
       </c>
       <c r="P40" t="n">
-        <v>97.21920882397649</v>
+        <v>97.21920882397652</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>144.4014964555051</v>
       </c>
       <c r="K41" t="n">
-        <v>338.3848596954502</v>
+        <v>338.3848596954504</v>
       </c>
       <c r="L41" t="n">
         <v>472.6010147733837</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>92.37486559213578</v>
       </c>
       <c r="K42" t="n">
         <v>285.7832000791879</v>
@@ -37871,13 +37871,13 @@
         <v>604.3494517223539</v>
       </c>
       <c r="O42" t="n">
-        <v>485.7751353889955</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>55.54273480552964</v>
+        <v>372.7025570063516</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.9117191255682</v>
+        <v>20.88609188932111</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>355.4702139608859</v>
       </c>
       <c r="Q44" t="n">
-        <v>188.9415492268443</v>
+        <v>188.9415492268441</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>446.2954230578256</v>
       </c>
       <c r="M45" t="n">
-        <v>573.309972596451</v>
+        <v>512.4989398577628</v>
       </c>
       <c r="N45" t="n">
-        <v>604.3494517223539</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>485.7751353889955</v>
       </c>
       <c r="P45" t="n">
-        <v>251.4544539310978</v>
+        <v>372.7025570063516</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>195.9117191255682</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
